--- a/単体テスト (1).xlsx
+++ b/単体テスト (1).xlsx
@@ -190,12 +190,493 @@
   <si>
     <t>パスワード指定外文字入力処理</t>
   </si>
+  <si>
+    <t>住所（）</t>
+  </si>
+  <si>
+    <t>住所（都道府県）未選択時処理</t>
+  </si>
+  <si>
+    <t>住所（市区町村）未選択時処理</t>
+  </si>
+  <si>
+    <t>住所（市区町村）指定外文字処理</t>
+  </si>
+  <si>
+    <t>住所（市区町村）未入力時処理</t>
+  </si>
+  <si>
+    <t>住所（）未入力時処理</t>
+  </si>
+  <si>
+    <t>住所（番地）未入力時処理</t>
+  </si>
+  <si>
+    <t>住所（番地）指定外文字処理</t>
+  </si>
+  <si>
+    <t>アカウント権限未選択時処理</t>
+  </si>
+  <si>
+    <t>未入力時のエラーメッセージ表示</t>
+  </si>
+  <si>
+    <t>指定外文字時のエラーメッセージ表示</t>
+  </si>
+  <si>
+    <t>未選択時のエラーメッセージ表示</t>
+  </si>
+  <si>
+    <t>GoogleChromeを開きhttp://localhost/Registration/index_diblog_registration.html</t>
+  </si>
+  <si>
+    <t>Chromeを開きhttp://localhost/Registration/index_diblog_registration.html</t>
+  </si>
+  <si>
+    <t>名前（姓）を未入力、空白の状態で確認するボタンをクリック</t>
+  </si>
+  <si>
+    <t>赤字ので「」</t>
+  </si>
+  <si>
+    <t>赤字で「名前（姓）です」と表示される</t>
+  </si>
+  <si>
+    <t>赤字で「名前（姓）未入力です」と表示される</t>
+  </si>
+  <si>
+    <t>名前（姓）欄を未入力、空白の状態で確認するボタンをクリック</t>
+  </si>
+  <si>
+    <t>名前（姓）欄に山a1+</t>
+  </si>
+  <si>
+    <t>名前（姓）欄に山a1+と入力して</t>
+  </si>
+  <si>
+    <t>名前（姓）欄に山a1+と入力して確認するボタンをクリック</t>
+  </si>
+  <si>
+    <t>赤字で「」</t>
+  </si>
+  <si>
+    <t>赤字で「名前（姓）を正しく入力してください」と表示される</t>
+  </si>
+  <si>
+    <t>平仮名、漢字指定の為、それ以外は受け付けない</t>
+  </si>
+  <si>
+    <t>名前（名）欄を未入力、空白の状態で確認するボタンをクリック</t>
+  </si>
+  <si>
+    <t>赤字で「名前（名）未入力です」と表示される</t>
+  </si>
+  <si>
+    <t>赤字で「名前（名）を正しく入力してください」と表示される</t>
+  </si>
+  <si>
+    <t>名前（名）欄に山a1+と入力して確認するボタンをクリック</t>
+  </si>
+  <si>
+    <t>カナ（姓）欄を未入力、空白の状態で確認するボタンをクリック</t>
+  </si>
+  <si>
+    <t>赤字で「名前（姓）が未入力です」と表示される</t>
+  </si>
+  <si>
+    <t>赤字で「名前（名）が未入力です」と表示される</t>
+  </si>
+  <si>
+    <t>赤字で「カナ（姓）が未入力です」と表示される</t>
+  </si>
+  <si>
+    <t>カナ（姓）欄に山a1+と入力して確認するボタンをクリック</t>
+  </si>
+  <si>
+    <t>赤字で「カナ（姓）を正しく入力してください」と表示される</t>
+  </si>
+  <si>
+    <t>カタカナ指定の為それ以外は受け付けない</t>
+  </si>
+  <si>
+    <t>カナ（名）欄に山a1+と入力して確認するボタンをクリック</t>
+  </si>
+  <si>
+    <t>赤字で「カナ（名）が未入力です」と表示される</t>
+  </si>
+  <si>
+    <t>カナ（名）欄を未入力、空白の状態で確認するボタンをクリック</t>
+  </si>
+  <si>
+    <t>赤字で「カナ（名）を正しく入力してください」と表示される</t>
+  </si>
+  <si>
+    <t>メールアドレス</t>
+  </si>
+  <si>
+    <t>メールアドレス欄を未入力、空白の状態で確認するボタンをクリック</t>
+  </si>
+  <si>
+    <t>赤字で「メールアドレスが未入力です」と表示される</t>
+  </si>
+  <si>
+    <t>メールアドレス欄に</t>
+  </si>
+  <si>
+    <t>メールアドレス欄に山a1+と入力して確認するボタンをクリック</t>
+  </si>
+  <si>
+    <t>赤字で「メールアドレスを正しく入力してください。」と表示される</t>
+  </si>
+  <si>
+    <t>赤字で「メールアドレスを正しく入力してください。」
+と表示される</t>
+  </si>
+  <si>
+    <t>半角英数字、半角記号（ハイフンとアットマーク）のみ入力可なので</t>
+  </si>
+  <si>
+    <t>半角英数字、半角記号（ハイフンとアットマーク）のみ
+入力可なのでそれ以外は受け付けない</t>
+  </si>
+  <si>
+    <t>半角英数字、半角記号（ハイフンとアットマーク）のみ入力可なのでそれ以外は受け付けない</t>
+  </si>
+  <si>
+    <t>パスワード欄を未入力、空白の状態で確認するボタンをクリック</t>
+  </si>
+  <si>
+    <t>赤字で「パスワードが未入力です」と表示される</t>
+  </si>
+  <si>
+    <t>パスワード欄に山a1+と入力して確認するボタンをクリック</t>
+  </si>
+  <si>
+    <t>赤字で「パスワードが未入力です。」と表示される</t>
+  </si>
+  <si>
+    <t>赤字で「メールアドレスが未入力です。」と表示される</t>
+  </si>
+  <si>
+    <t>赤字で「カナ（名）を正しく入力してください。」と表示される</t>
+  </si>
+  <si>
+    <t>赤字で「カナ（姓）を正しく入力してください。」と表示される</t>
+  </si>
+  <si>
+    <t>赤字で「カナ（姓）が未入力です。」と表示される</t>
+  </si>
+  <si>
+    <t>赤字で「名前（名）を正しく入力してください。」と表示される</t>
+  </si>
+  <si>
+    <t>赤字で「名前（名）が未入力です。」と表示される</t>
+  </si>
+  <si>
+    <t>赤字で「名前（姓）を正しく入力してください。」と表示される</t>
+  </si>
+  <si>
+    <t>赤字で「名前（姓）が未入力です。」と表示される</t>
+  </si>
+  <si>
+    <t>赤字で「メールアドレスを正しく入力してください。」と
+表示される</t>
+  </si>
+  <si>
+    <t>半角英数字のみ入力可なのでそれ以外は受け付けない</t>
+  </si>
+  <si>
+    <t>半角英数字のみ入力可なので
+それ以外は受け付けない</t>
+  </si>
+  <si>
+    <t>都道府県欄を未選択で確認するボタンをクリックする</t>
+  </si>
+  <si>
+    <t>赤字で「住所（都道府県）が未選択です」と表示される</t>
+  </si>
+  <si>
+    <t>赤字で「住所（都道府県）が未選択です」と
+表示される</t>
+  </si>
+  <si>
+    <t>性別未選択時処理</t>
+  </si>
+  <si>
+    <t>郵便番号未入力処理</t>
+  </si>
+  <si>
+    <t>郵便番号指定外文字入力処理</t>
+  </si>
+  <si>
+    <t>性別を未選択で確認するボタンをクリックする</t>
+  </si>
+  <si>
+    <t>赤字で「性別を選択してください」と表示される</t>
+  </si>
+  <si>
+    <t>郵便番号欄を未入力、空白の状態で確認するボタンをクリック</t>
+  </si>
+  <si>
+    <t>赤字で「郵便番号が未入力です」と表示される</t>
+  </si>
+  <si>
+    <t>郵便番号欄に山a1+と入力して確認するボタンをクリック</t>
+  </si>
+  <si>
+    <t>郵便番号欄に12345678と入力して確認するボタンをクリック</t>
+  </si>
+  <si>
+    <t>赤字で「郵便番号は7桁の数字で入力してください。」と表示される</t>
+  </si>
+  <si>
+    <t>赤字で「郵便番号は7桁の数字で入力してください。」と
+表示される</t>
+  </si>
+  <si>
+    <t>半角数字のみ入力可、7桁なのでそれ以外は受け付けない</t>
+  </si>
+  <si>
+    <t>住所（市区町村）欄を未入力、空白の状態で確認するボタンをクリック</t>
+  </si>
+  <si>
+    <t>住所（番地）欄を未入力、空白の状態で確認するボタンをクリック</t>
+  </si>
+  <si>
+    <t>アカウント権限欄を未選択で確認するボタンをクリックする</t>
+  </si>
+  <si>
+    <t>住所（市区町村）欄にあア亜1カ-aを入力して確認するボタンをクリック</t>
+  </si>
+  <si>
+    <t>赤字で「」と表示される</t>
+  </si>
+  <si>
+    <t>赤字で「住所（市区町村）が未入力です」と表示される</t>
+  </si>
+  <si>
+    <t>赤字で「住所（番地）が未入力です」と表示される</t>
+  </si>
+  <si>
+    <t xml:space="preserve">赤字で「アカウント権限が未選択です」と表示される
+</t>
+  </si>
+  <si>
+    <t>赤字で「アカウント権限が未選択です」と
+表示される</t>
+  </si>
+  <si>
+    <t>赤字で「住所（市区町村）はひらがな、漢字、カタカナ、数字、記号（ハイフンとスペース）のみ入力可能です。」と表示される</t>
+  </si>
+  <si>
+    <t>赤字で「住所（市区町村）はひらがな、漢字、カタカナ、数字、
+記号（ハイフンとスペース）のみ入力可能です。」と表示される</t>
+  </si>
+  <si>
+    <t>ひらがな、漢字、カタカナ、数字、記号（ハイフンとスペース）のみ入力可なのでそれ以外は受け付けない</t>
+  </si>
+  <si>
+    <t>名前（名）欄にabcと入力して確認するボタンをクリック</t>
+  </si>
+  <si>
+    <t>名前（名）欄にabcと入力して確認するボタンをクリック(同じ様に123、アア、@#を入力してチェックする)</t>
+  </si>
+  <si>
+    <t>名前（名）欄にabcと入力して確認するボタンをクリック
+(同じ様に123、アア、@#を入力してチェックする)</t>
+  </si>
+  <si>
+    <t>赤字で「カナ（姓）は全角カタカナで入力してください。」と表示される</t>
+  </si>
+  <si>
+    <t>赤字で「カナ（姓）は全角カタカナで入力してください。」と
+表示される</t>
+  </si>
+  <si>
+    <t>赤字で「カナ（名）は全角カタカナで入力してください。」と
+表示される</t>
+  </si>
+  <si>
+    <t>赤字で「パスワードは半角英数字で入力してください。」と
+表示される</t>
+  </si>
+  <si>
+    <t>赤字で「アカウント権限を選択してください」と
+表示される</t>
+  </si>
+  <si>
+    <t>カナ（姓）欄にㇽと入力して確認するボタンをクリック</t>
+  </si>
+  <si>
+    <t>カナ（姓）欄にㇽと入力して確認するボタンをクリック(や、山、1、@を入力してチェックする)</t>
+  </si>
+  <si>
+    <t>7桁半角数字のみ入力可、それ以外は受け付けない</t>
+  </si>
+  <si>
+    <t>カナ（姓）欄にㇽと入力して確認するボタンをクリック(同じ様にや、山、1、@を入力してチェックする)</t>
+  </si>
+  <si>
+    <t>名前（名）欄に123と入力して確認するボタンをクリック
+(同じ様に123、アア、@#を入力してチェックする)</t>
+  </si>
+  <si>
+    <t>名前（名）欄にアアと入力して確認するボタンをクリック
+(同じ様に123、アア、@#を入力してチェックする)</t>
+  </si>
+  <si>
+    <t>名前（名）欄に123と入力して確認するボタンをクリック</t>
+  </si>
+  <si>
+    <t>名前（名）欄にアアと入力して確認するボタンをクリック</t>
+  </si>
+  <si>
+    <t>名前（名）欄に@#と入力して確認するボタンをクリック
+(同じ様に123、アア、@#を入力してチェックする)</t>
+  </si>
+  <si>
+    <t>名前（名）欄に@#と入力して確認するボタンをクリック</t>
+  </si>
+  <si>
+    <t>名前（姓）欄にabcと入力して確認するボタンをクリック
+(同じ様に123、アア、@#を入力してチェックする)</t>
+  </si>
+  <si>
+    <t>名前（姓）欄に123と入力して確認するボタンをクリック</t>
+  </si>
+  <si>
+    <t>名前（姓）欄にアアと入力して確認するボタンをクリック</t>
+  </si>
+  <si>
+    <t>名前（姓）欄に@#と入力して確認するボタンをクリック</t>
+  </si>
+  <si>
+    <t>カナ（姓）欄にやと入力して確認するボタンをクリック</t>
+  </si>
+  <si>
+    <t>カナ（姓）欄に山と入力して確認するボタンをクリック</t>
+  </si>
+  <si>
+    <t>カナ（姓）欄に1と入力して確認するボタンをクリック</t>
+  </si>
+  <si>
+    <t>カナ（姓）欄に＠と入力して確認するボタンをクリック(同じ様にや、山、1、@を入力してチェックする)</t>
+  </si>
+  <si>
+    <t>カナ（姓）欄に＠と入力して確認するボタンをクリック</t>
+  </si>
+  <si>
+    <t>カナ（名）欄にㇽと入力して確認するボタンをクリック(同じ様にや、山、1、@を入力してチェックする)</t>
+  </si>
+  <si>
+    <t>カナ（名）欄にやと入力して確認するボタンをクリック</t>
+  </si>
+  <si>
+    <t>カナ（名）欄に山と入力して確認するボタンをクリック</t>
+  </si>
+  <si>
+    <t>カナ（名）欄に1と入力して確認するボタンをクリック</t>
+  </si>
+  <si>
+    <t>カナ（名）欄に＠と入力して確認するボタンをクリック</t>
+  </si>
+  <si>
+    <t>メールアドレス欄にテスト@example.comと入力して
+確認するボタンをクリック</t>
+  </si>
+  <si>
+    <t>メールアドレス欄にuser name@example.comと
+入力して
+確認するボタンをクリック</t>
+  </si>
+  <si>
+    <t>メールアドレス欄にuser name@example.comと
+入力して確認するボタンをクリック</t>
+  </si>
+  <si>
+    <t>メールアドレス欄にexample@例.comと入力して
+確認するボタンをクリック</t>
+  </si>
+  <si>
+    <t>メールアドレス欄にuser#name@example.comと入力して
+確認するボタンをクリック</t>
+  </si>
+  <si>
+    <t>パスワード欄にＰａｓｓｗｏｒｄ１２３と入力して確認するボタンをクリック</t>
+  </si>
+  <si>
+    <t>パスワード欄にpassword!123と入力して確認するボタンをクリック</t>
+  </si>
+  <si>
+    <t>パスワード欄にpassword 123と入力して確認するボタンをクリック</t>
+  </si>
+  <si>
+    <t>パスワード欄にこんにちはと入力して確認するボタンをクリック</t>
+  </si>
+  <si>
+    <t>パスワード欄に123_passwordと入力して確認するボタンをクリック</t>
+  </si>
+  <si>
+    <t>郵便番号欄に123456と入力して確認するボタンをクリック</t>
+  </si>
+  <si>
+    <t>郵便番号欄に1234-567と入力して確認するボタンをクリック</t>
+  </si>
+  <si>
+    <t>郵便番号欄に123 4567と入力して確認するボタンをクリック</t>
+  </si>
+  <si>
+    <t>郵便番号欄に123ABCDと入力して確認するボタンをクリック</t>
+  </si>
+  <si>
+    <t>郵便番号欄に1234あいうと入力して確認するボタンをクリック</t>
+  </si>
+  <si>
+    <t>郵便番号欄に１２３４５６７と入力して確認するボタンをクリック</t>
+  </si>
+  <si>
+    <t>住所（市区町村）欄にTokyoと入力して確認するボタンをクリック</t>
+  </si>
+  <si>
+    <t>住所（市区町村）欄に名古屋@中央区を入力して確認するボタンをクリック</t>
+  </si>
+  <si>
+    <t>住所（市区町村）欄に札幌・中央区と入力して確認するボタンをクリック</t>
+  </si>
+  <si>
+    <t>住所（市区町村）欄に123ABC区と入力して確認するボタンをクリック</t>
+  </si>
+  <si>
+    <t>住所（市区町村）欄にＯｓａｋａ市と入力して確認するボタンをクリック</t>
+  </si>
+  <si>
+    <t>住所（番地）欄にTokyoと入力して確認するボタンをクリック</t>
+  </si>
+  <si>
+    <t>赤字で「住所（番地）はひらがな、漢字、カタカナ、数字、
+記号（ハイフンとスペース）のみ入力可能です。」と表示される</t>
+  </si>
+  <si>
+    <t>住所（番地）欄に名古屋@中央区を入力して確認するボタンをクリック</t>
+  </si>
+  <si>
+    <t>住所（番地）欄に札幌・中央区と入力して確認するボタンをクリック</t>
+  </si>
+  <si>
+    <t>住所（番地）欄に123ABC区と入力して確認するボタンをクリック</t>
+  </si>
+  <si>
+    <t>住所（番地）欄にＯｓａｋａ市と入力して確認するボタンをクリック</t>
+  </si>
+  <si>
+    <t>regist.php単体テスト</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,6 +733,118 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="游ゴシック"/>
+      <color theme="1"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <color rgb="FFFF0000"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="游ゴシック"/>
+      <color rgb="FFFF0000"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Yu Gothic UI"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="游ゴシック"/>
+      <color rgb="FFFFFF00"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="游ゴシック"/>
+      <color rgb="FF1F497D"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="游ゴシック"/>
+      <color rgb="FFFF0000"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Yu Gothic UI"/>
+      <color rgb="FFFF0000"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <color rgb="FF548ED5"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <color rgb="FF7030A0"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <color rgb="FF92D050"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="游ゴシック"/>
+      <color rgb="FF92D050"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <color rgb="FFC0504D"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="游ゴシック"/>
+      <color rgb="FFC0504D"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="游ゴシック"/>
+      <color rgb="FF92D050"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="游ゴシック"/>
+      <color rgb="FF92D050"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -261,7 +854,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -338,11 +931,237 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -444,6 +1263,178 @@
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="9" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="10" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="11" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="12" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="13" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="14" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="14" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="14" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="14" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="14" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="14" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="14" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="14" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="14" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="14" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="15" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="16" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="17" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="18" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="19" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="20" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="14" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="0" applyFill="1" borderId="21" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="21" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="21" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="0" applyFill="1" borderId="21" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="0" applyFill="1" borderId="21" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="21" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="21" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="21" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="21" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="0" applyFill="1" borderId="21" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="0" applyFill="1" borderId="21" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="0" applyFill="1" borderId="21" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="0" applyFill="1" borderId="21" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="19" applyFont="1" fillId="0" applyFill="1" borderId="21" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="0" applyFill="1" borderId="21" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="0" applyFill="1" borderId="21" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="22" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="22" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="22" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="0" applyFill="1" borderId="22" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="0" applyFill="1" borderId="22" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="0" applyFill="1" borderId="22" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="22" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="0" applyFill="1" borderId="22" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="23" applyFont="1" fillId="0" applyFill="1" borderId="22" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="23" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="23" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="23" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="23" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -781,16 +1772,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A12:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16" activeCellId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="3">
-      <c r="C3" s="23" t="s">
-        <v>37</v>
-      </c>
+    <row r="3" customHeight="1" ht="12.75">
+      <c r="B3" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="C3" s="23"/>
       <c r="D3" s="23"/>
       <c r="E3" s="23"/>
       <c r="F3" s="23"/>
@@ -816,8 +1808,14 @@
       <c r="Z3" s="23"/>
       <c r="AA3" s="23"/>
       <c r="AB3" s="23"/>
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="23"/>
+      <c r="AE3" s="23"/>
+      <c r="AF3" s="23"/>
+      <c r="AG3" s="23"/>
     </row>
     <row r="4">
+      <c r="B4" s="23"/>
       <c r="C4" s="23"/>
       <c r="D4" s="23"/>
       <c r="E4" s="23"/>
@@ -844,6 +1842,11 @@
       <c r="Z4" s="23"/>
       <c r="AA4" s="23"/>
       <c r="AB4" s="23"/>
+      <c r="AC4" s="23"/>
+      <c r="AD4" s="23"/>
+      <c r="AE4" s="23"/>
+      <c r="AF4" s="23"/>
+      <c r="AG4" s="23"/>
     </row>
     <row r="5" ht="15">
       <c r="B5" s="19" t="s">
@@ -863,38 +1866,43 @@
         <v>1</v>
       </c>
       <c r="J5" s="19"/>
-      <c r="K5" s="19" t="s">
+      <c r="K5" s="19"/>
+      <c r="L5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="19"/>
       <c r="M5" s="19"/>
       <c r="N5" s="19"/>
       <c r="O5" s="19"/>
       <c r="P5" s="19"/>
-      <c r="Q5" s="19" t="s">
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="18" t="s">
+      <c r="T5" s="28"/>
+      <c r="U5" s="28"/>
+      <c r="V5" s="28"/>
+      <c r="W5" s="28"/>
+      <c r="X5" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="V5" s="19" t="s">
+      <c r="Y5" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="W5" s="19"/>
-      <c r="X5" s="19"/>
-      <c r="Y5" s="19" t="s">
+      <c r="Z5" s="19"/>
+      <c r="AA5" s="19"/>
+      <c r="AB5" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="Z5" s="19" t="s">
+      <c r="AC5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="AA5" s="19" t="s">
+      <c r="AD5" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="AB5" s="19"/>
+      <c r="AE5" s="19"/>
+      <c r="AF5" s="19"/>
+      <c r="AG5" s="19"/>
     </row>
     <row r="6" ht="14.25">
       <c r="B6" s="22">
@@ -905,66 +1913,80 @@
       </c>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
-      <c r="F6" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
+      <c r="F6" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
       <c r="I6" s="24" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="J6" s="24"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="21" t="s">
+      <c r="K6" s="24"/>
+      <c r="L6" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="T6" s="48"/>
+      <c r="U6" s="48"/>
+      <c r="V6" s="48"/>
+      <c r="W6" s="48"/>
+      <c r="X6" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="V6" s="19"/>
-      <c r="W6" s="18"/>
-      <c r="X6" s="18"/>
-      <c r="Y6" s="18"/>
-      <c r="Z6" s="18"/>
-      <c r="AA6" s="18"/>
-      <c r="AB6" s="18"/>
+      <c r="Y6" s="22"/>
+      <c r="Z6" s="22"/>
+      <c r="AA6" s="22"/>
+      <c r="AB6" s="22"/>
+      <c r="AC6" s="19"/>
+      <c r="AD6" s="19"/>
+      <c r="AE6" s="19"/>
+      <c r="AF6" s="19"/>
+      <c r="AG6" s="19"/>
     </row>
     <row r="7" ht="14.25">
       <c r="B7" s="22"/>
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
       <c r="I7" s="24"/>
       <c r="J7" s="24"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="18"/>
-      <c r="U7" s="18"/>
-      <c r="V7" s="18"/>
-      <c r="W7" s="18"/>
-      <c r="X7" s="18"/>
-      <c r="Y7" s="18"/>
-      <c r="Z7" s="18"/>
-      <c r="AA7" s="18"/>
-      <c r="AB7" s="18"/>
-    </row>
-    <row r="8" ht="14.25">
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="48"/>
+      <c r="T7" s="48"/>
+      <c r="U7" s="48"/>
+      <c r="V7" s="48"/>
+      <c r="W7" s="48"/>
+      <c r="X7" s="24"/>
+      <c r="Y7" s="22"/>
+      <c r="Z7" s="22"/>
+      <c r="AA7" s="22"/>
+      <c r="AB7" s="22"/>
+      <c r="AC7" s="19"/>
+      <c r="AD7" s="19"/>
+      <c r="AE7" s="19"/>
+      <c r="AF7" s="19"/>
+      <c r="AG7" s="19"/>
+    </row>
+    <row r="8" ht="15">
       <c r="B8" s="22">
         <v>2</v>
       </c>
@@ -972,32 +1994,47 @@
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
       <c r="F8" s="33" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G8" s="33"/>
       <c r="H8" s="33"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="18"/>
-      <c r="U8" s="18"/>
-      <c r="V8" s="18"/>
-      <c r="W8" s="18"/>
-      <c r="X8" s="18"/>
-      <c r="Y8" s="18"/>
-      <c r="Z8" s="18"/>
-      <c r="AA8" s="18"/>
-      <c r="AB8" s="18"/>
-    </row>
-    <row r="9" ht="14.25">
+      <c r="I8" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="90" t="s">
+        <v>160</v>
+      </c>
+      <c r="M8" s="91"/>
+      <c r="N8" s="91"/>
+      <c r="O8" s="91"/>
+      <c r="P8" s="91"/>
+      <c r="Q8" s="91"/>
+      <c r="R8" s="91"/>
+      <c r="S8" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="T8" s="37"/>
+      <c r="U8" s="37"/>
+      <c r="V8" s="37"/>
+      <c r="W8" s="37"/>
+      <c r="X8" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y8" s="22"/>
+      <c r="Z8" s="22"/>
+      <c r="AA8" s="22"/>
+      <c r="AB8" s="22"/>
+      <c r="AC8" s="19"/>
+      <c r="AD8" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE8" s="24"/>
+      <c r="AF8" s="24"/>
+      <c r="AG8" s="24"/>
+    </row>
+    <row r="9" ht="15">
       <c r="B9" s="22"/>
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
@@ -1005,28 +2042,33 @@
       <c r="F9" s="33"/>
       <c r="G9" s="33"/>
       <c r="H9" s="33"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="18"/>
-      <c r="V9" s="18"/>
-      <c r="W9" s="18"/>
-      <c r="X9" s="18"/>
-      <c r="Y9" s="18"/>
-      <c r="Z9" s="18"/>
-      <c r="AA9" s="18"/>
-      <c r="AB9" s="18"/>
-    </row>
-    <row r="10" ht="14.25">
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="91"/>
+      <c r="M9" s="91"/>
+      <c r="N9" s="91"/>
+      <c r="O9" s="91"/>
+      <c r="P9" s="91"/>
+      <c r="Q9" s="91"/>
+      <c r="R9" s="91"/>
+      <c r="S9" s="37"/>
+      <c r="T9" s="37"/>
+      <c r="U9" s="37"/>
+      <c r="V9" s="37"/>
+      <c r="W9" s="37"/>
+      <c r="X9" s="24"/>
+      <c r="Y9" s="22"/>
+      <c r="Z9" s="22"/>
+      <c r="AA9" s="22"/>
+      <c r="AB9" s="22"/>
+      <c r="AC9" s="19"/>
+      <c r="AD9" s="24"/>
+      <c r="AE9" s="24"/>
+      <c r="AF9" s="24"/>
+      <c r="AG9" s="24"/>
+    </row>
+    <row r="10" ht="15">
       <c r="B10" s="22">
         <v>3</v>
       </c>
@@ -1038,28 +2080,43 @@
       </c>
       <c r="G10" s="33"/>
       <c r="H10" s="33"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="18"/>
-      <c r="U10" s="18"/>
-      <c r="V10" s="18"/>
-      <c r="W10" s="18"/>
-      <c r="X10" s="18"/>
-      <c r="Y10" s="18"/>
-      <c r="Z10" s="18"/>
-      <c r="AA10" s="18"/>
-      <c r="AB10" s="18"/>
-    </row>
-    <row r="11" ht="14.25">
+      <c r="I10" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="T10" s="37"/>
+      <c r="U10" s="37"/>
+      <c r="V10" s="37"/>
+      <c r="W10" s="37"/>
+      <c r="X10" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y10" s="22"/>
+      <c r="Z10" s="22"/>
+      <c r="AA10" s="22"/>
+      <c r="AB10" s="22"/>
+      <c r="AC10" s="19"/>
+      <c r="AD10" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE10" s="24"/>
+      <c r="AF10" s="24"/>
+      <c r="AG10" s="24"/>
+    </row>
+    <row r="11" ht="15">
       <c r="B11" s="22"/>
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
@@ -1067,28 +2124,33 @@
       <c r="F11" s="33"/>
       <c r="G11" s="33"/>
       <c r="H11" s="33"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="18"/>
-      <c r="U11" s="18"/>
-      <c r="V11" s="18"/>
-      <c r="W11" s="18"/>
-      <c r="X11" s="18"/>
-      <c r="Y11" s="18"/>
-      <c r="Z11" s="18"/>
-      <c r="AA11" s="18"/>
-      <c r="AB11" s="18"/>
-    </row>
-    <row r="12" ht="14.25">
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="37"/>
+      <c r="T11" s="37"/>
+      <c r="U11" s="37"/>
+      <c r="V11" s="37"/>
+      <c r="W11" s="37"/>
+      <c r="X11" s="36"/>
+      <c r="Y11" s="22"/>
+      <c r="Z11" s="22"/>
+      <c r="AA11" s="22"/>
+      <c r="AB11" s="22"/>
+      <c r="AC11" s="19"/>
+      <c r="AD11" s="24"/>
+      <c r="AE11" s="24"/>
+      <c r="AF11" s="24"/>
+      <c r="AG11" s="24"/>
+    </row>
+    <row r="12" ht="15">
       <c r="B12" s="22">
         <v>4</v>
       </c>
@@ -1096,32 +2158,47 @@
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G12" s="33"/>
       <c r="H12" s="33"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="18"/>
-      <c r="U12" s="18"/>
-      <c r="V12" s="18"/>
-      <c r="W12" s="18"/>
-      <c r="X12" s="18"/>
-      <c r="Y12" s="18"/>
-      <c r="Z12" s="18"/>
-      <c r="AA12" s="18"/>
-      <c r="AB12" s="18"/>
-    </row>
-    <row r="13" ht="14.25">
+      <c r="I12" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="T12" s="37"/>
+      <c r="U12" s="37"/>
+      <c r="V12" s="37"/>
+      <c r="W12" s="37"/>
+      <c r="X12" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y12" s="22"/>
+      <c r="Z12" s="22"/>
+      <c r="AA12" s="22"/>
+      <c r="AB12" s="22"/>
+      <c r="AC12" s="19"/>
+      <c r="AD12" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE12" s="24"/>
+      <c r="AF12" s="24"/>
+      <c r="AG12" s="24"/>
+    </row>
+    <row r="13" ht="15">
       <c r="B13" s="22"/>
       <c r="C13" s="20"/>
       <c r="D13" s="20"/>
@@ -1129,28 +2206,33 @@
       <c r="F13" s="33"/>
       <c r="G13" s="33"/>
       <c r="H13" s="33"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
-      <c r="T13" s="18"/>
-      <c r="U13" s="18"/>
-      <c r="V13" s="18"/>
-      <c r="W13" s="18"/>
-      <c r="X13" s="18"/>
-      <c r="Y13" s="18"/>
-      <c r="Z13" s="18"/>
-      <c r="AA13" s="18"/>
-      <c r="AB13" s="18"/>
-    </row>
-    <row r="14" ht="14.25">
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="37"/>
+      <c r="T13" s="37"/>
+      <c r="U13" s="37"/>
+      <c r="V13" s="37"/>
+      <c r="W13" s="37"/>
+      <c r="X13" s="36"/>
+      <c r="Y13" s="22"/>
+      <c r="Z13" s="22"/>
+      <c r="AA13" s="22"/>
+      <c r="AB13" s="22"/>
+      <c r="AC13" s="19"/>
+      <c r="AD13" s="24"/>
+      <c r="AE13" s="24"/>
+      <c r="AF13" s="24"/>
+      <c r="AG13" s="24"/>
+    </row>
+    <row r="14" ht="15">
       <c r="B14" s="22">
         <v>5</v>
       </c>
@@ -1158,30 +2240,45 @@
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="33" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G14" s="33"/>
       <c r="H14" s="33"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="18"/>
-      <c r="S14" s="18"/>
-      <c r="T14" s="18"/>
-      <c r="U14" s="18"/>
-      <c r="V14" s="18"/>
-      <c r="W14" s="18"/>
-      <c r="X14" s="18"/>
-      <c r="Y14" s="18"/>
-      <c r="Z14" s="18"/>
-      <c r="AA14" s="18"/>
-      <c r="AB14" s="18"/>
+      <c r="I14" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="T14" s="37"/>
+      <c r="U14" s="37"/>
+      <c r="V14" s="37"/>
+      <c r="W14" s="37"/>
+      <c r="X14" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y14" s="22"/>
+      <c r="Z14" s="22"/>
+      <c r="AA14" s="22"/>
+      <c r="AB14" s="22"/>
+      <c r="AC14" s="19"/>
+      <c r="AD14" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE14" s="24"/>
+      <c r="AF14" s="24"/>
+      <c r="AG14" s="24"/>
     </row>
     <row r="15" ht="15">
       <c r="A15" s="1"/>
@@ -1192,26 +2289,31 @@
       <c r="F15" s="33"/>
       <c r="G15" s="33"/>
       <c r="H15" s="33"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="18"/>
-      <c r="T15" s="18"/>
-      <c r="U15" s="18"/>
-      <c r="V15" s="18"/>
-      <c r="W15" s="18"/>
-      <c r="X15" s="18"/>
-      <c r="Y15" s="18"/>
-      <c r="Z15" s="18"/>
-      <c r="AA15" s="18"/>
-      <c r="AB15" s="18"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="37"/>
+      <c r="T15" s="37"/>
+      <c r="U15" s="37"/>
+      <c r="V15" s="37"/>
+      <c r="W15" s="37"/>
+      <c r="X15" s="36"/>
+      <c r="Y15" s="22"/>
+      <c r="Z15" s="22"/>
+      <c r="AA15" s="22"/>
+      <c r="AB15" s="22"/>
+      <c r="AC15" s="19"/>
+      <c r="AD15" s="24"/>
+      <c r="AE15" s="24"/>
+      <c r="AF15" s="24"/>
+      <c r="AG15" s="24"/>
     </row>
     <row r="16" customHeight="1" ht="15.75">
       <c r="A16" s="1"/>
@@ -1222,30 +2324,43 @@
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="33" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G16" s="33"/>
       <c r="H16" s="33"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="18"/>
-      <c r="S16" s="18"/>
-      <c r="T16" s="18"/>
-      <c r="U16" s="18"/>
-      <c r="V16" s="18"/>
-      <c r="W16" s="18"/>
-      <c r="X16" s="18"/>
-      <c r="Y16" s="18"/>
-      <c r="Z16" s="18"/>
-      <c r="AA16" s="18"/>
-      <c r="AB16" s="18"/>
+      <c r="I16" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="T16" s="48"/>
+      <c r="U16" s="48"/>
+      <c r="V16" s="48"/>
+      <c r="W16" s="48"/>
+      <c r="X16" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y16" s="22"/>
+      <c r="Z16" s="22"/>
+      <c r="AA16" s="22"/>
+      <c r="AB16" s="22"/>
+      <c r="AC16" s="19"/>
+      <c r="AD16" s="19"/>
+      <c r="AE16" s="19"/>
+      <c r="AF16" s="19"/>
+      <c r="AG16" s="19"/>
     </row>
     <row r="17" ht="15">
       <c r="A17" s="1"/>
@@ -1256,26 +2371,31 @@
       <c r="F17" s="33"/>
       <c r="G17" s="33"/>
       <c r="H17" s="33"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="18"/>
-      <c r="S17" s="18"/>
-      <c r="T17" s="18"/>
-      <c r="U17" s="18"/>
-      <c r="V17" s="18"/>
-      <c r="W17" s="18"/>
-      <c r="X17" s="18"/>
-      <c r="Y17" s="18"/>
-      <c r="Z17" s="18"/>
-      <c r="AA17" s="18"/>
-      <c r="AB17" s="18"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="48"/>
+      <c r="T17" s="48"/>
+      <c r="U17" s="48"/>
+      <c r="V17" s="48"/>
+      <c r="W17" s="48"/>
+      <c r="X17" s="24"/>
+      <c r="Y17" s="22"/>
+      <c r="Z17" s="22"/>
+      <c r="AA17" s="22"/>
+      <c r="AB17" s="22"/>
+      <c r="AC17" s="19"/>
+      <c r="AD17" s="19"/>
+      <c r="AE17" s="19"/>
+      <c r="AF17" s="19"/>
+      <c r="AG17" s="19"/>
     </row>
     <row r="18" ht="15">
       <c r="A18" s="1"/>
@@ -1286,30 +2406,45 @@
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
       <c r="F18" s="33" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G18" s="33"/>
       <c r="H18" s="33"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="18"/>
-      <c r="S18" s="18"/>
-      <c r="T18" s="18"/>
-      <c r="U18" s="18"/>
-      <c r="V18" s="18"/>
-      <c r="W18" s="18"/>
-      <c r="X18" s="18"/>
-      <c r="Y18" s="18"/>
-      <c r="Z18" s="18"/>
-      <c r="AA18" s="18"/>
-      <c r="AB18" s="18"/>
+      <c r="I18" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="T18" s="37"/>
+      <c r="U18" s="37"/>
+      <c r="V18" s="37"/>
+      <c r="W18" s="37"/>
+      <c r="X18" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y18" s="22"/>
+      <c r="Z18" s="22"/>
+      <c r="AA18" s="22"/>
+      <c r="AB18" s="22"/>
+      <c r="AC18" s="19"/>
+      <c r="AD18" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE18" s="24"/>
+      <c r="AF18" s="24"/>
+      <c r="AG18" s="24"/>
     </row>
     <row r="19" ht="15">
       <c r="A19" s="1"/>
@@ -1320,28 +2455,33 @@
       <c r="F19" s="33"/>
       <c r="G19" s="33"/>
       <c r="H19" s="33"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="18"/>
-      <c r="R19" s="18"/>
-      <c r="S19" s="18"/>
-      <c r="T19" s="18"/>
-      <c r="U19" s="18"/>
-      <c r="V19" s="18"/>
-      <c r="W19" s="18"/>
-      <c r="X19" s="18"/>
-      <c r="Y19" s="18"/>
-      <c r="Z19" s="18"/>
-      <c r="AA19" s="18"/>
-      <c r="AB19" s="18"/>
-    </row>
-    <row r="20" ht="14.25">
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="37"/>
+      <c r="T19" s="37"/>
+      <c r="U19" s="37"/>
+      <c r="V19" s="37"/>
+      <c r="W19" s="37"/>
+      <c r="X19" s="24"/>
+      <c r="Y19" s="22"/>
+      <c r="Z19" s="22"/>
+      <c r="AA19" s="22"/>
+      <c r="AB19" s="22"/>
+      <c r="AC19" s="19"/>
+      <c r="AD19" s="24"/>
+      <c r="AE19" s="24"/>
+      <c r="AF19" s="24"/>
+      <c r="AG19" s="24"/>
+    </row>
+    <row r="20" ht="15">
       <c r="B20" s="22">
         <v>8</v>
       </c>
@@ -1349,30 +2489,45 @@
       <c r="D20" s="20"/>
       <c r="E20" s="20"/>
       <c r="F20" s="33" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G20" s="33"/>
       <c r="H20" s="33"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="18"/>
-      <c r="R20" s="18"/>
-      <c r="S20" s="18"/>
-      <c r="T20" s="18"/>
-      <c r="U20" s="18"/>
-      <c r="V20" s="18"/>
-      <c r="W20" s="18"/>
-      <c r="X20" s="18"/>
-      <c r="Y20" s="18"/>
-      <c r="Z20" s="18"/>
-      <c r="AA20" s="18"/>
-      <c r="AB20" s="18"/>
+      <c r="I20" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="24"/>
+      <c r="S20" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="T20" s="37"/>
+      <c r="U20" s="37"/>
+      <c r="V20" s="37"/>
+      <c r="W20" s="37"/>
+      <c r="X20" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y20" s="22"/>
+      <c r="Z20" s="22"/>
+      <c r="AA20" s="22"/>
+      <c r="AB20" s="22"/>
+      <c r="AC20" s="19"/>
+      <c r="AD20" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE20" s="24"/>
+      <c r="AF20" s="24"/>
+      <c r="AG20" s="24"/>
     </row>
     <row r="21" ht="14.25">
       <c r="B21" s="22"/>
@@ -1382,28 +2537,33 @@
       <c r="F21" s="33"/>
       <c r="G21" s="33"/>
       <c r="H21" s="33"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="18"/>
-      <c r="P21" s="18"/>
-      <c r="Q21" s="18"/>
-      <c r="R21" s="18"/>
-      <c r="S21" s="18"/>
-      <c r="T21" s="18"/>
-      <c r="U21" s="18"/>
-      <c r="V21" s="18"/>
-      <c r="W21" s="18"/>
-      <c r="X21" s="18"/>
-      <c r="Y21" s="18"/>
-      <c r="Z21" s="18"/>
-      <c r="AA21" s="18"/>
-      <c r="AB21" s="18"/>
-    </row>
-    <row r="22" ht="14.25">
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="37"/>
+      <c r="T21" s="37"/>
+      <c r="U21" s="37"/>
+      <c r="V21" s="37"/>
+      <c r="W21" s="37"/>
+      <c r="X21" s="36"/>
+      <c r="Y21" s="22"/>
+      <c r="Z21" s="22"/>
+      <c r="AA21" s="22"/>
+      <c r="AB21" s="22"/>
+      <c r="AC21" s="19"/>
+      <c r="AD21" s="24"/>
+      <c r="AE21" s="24"/>
+      <c r="AF21" s="24"/>
+      <c r="AG21" s="24"/>
+    </row>
+    <row r="22" ht="15">
       <c r="B22" s="22">
         <v>9</v>
       </c>
@@ -1411,32 +2571,47 @@
       <c r="D22" s="20"/>
       <c r="E22" s="20"/>
       <c r="F22" s="33" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G22" s="33"/>
       <c r="H22" s="33"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18"/>
-      <c r="O22" s="18"/>
-      <c r="P22" s="18"/>
-      <c r="Q22" s="18"/>
-      <c r="R22" s="18"/>
-      <c r="S22" s="18"/>
-      <c r="T22" s="18"/>
-      <c r="U22" s="18"/>
-      <c r="V22" s="18"/>
-      <c r="W22" s="18"/>
-      <c r="X22" s="18"/>
-      <c r="Y22" s="18"/>
-      <c r="Z22" s="18"/>
-      <c r="AA22" s="18"/>
-      <c r="AB22" s="18"/>
-    </row>
-    <row r="23" ht="14.25">
+      <c r="I22" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="24"/>
+      <c r="S22" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="T22" s="37"/>
+      <c r="U22" s="37"/>
+      <c r="V22" s="37"/>
+      <c r="W22" s="37"/>
+      <c r="X22" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y22" s="22"/>
+      <c r="Z22" s="22"/>
+      <c r="AA22" s="22"/>
+      <c r="AB22" s="22"/>
+      <c r="AC22" s="19"/>
+      <c r="AD22" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE22" s="24"/>
+      <c r="AF22" s="24"/>
+      <c r="AG22" s="24"/>
+    </row>
+    <row r="23" ht="15">
       <c r="B23" s="22"/>
       <c r="C23" s="20"/>
       <c r="D23" s="20"/>
@@ -1444,28 +2619,33 @@
       <c r="F23" s="33"/>
       <c r="G23" s="33"/>
       <c r="H23" s="33"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="18"/>
-      <c r="R23" s="18"/>
-      <c r="S23" s="18"/>
-      <c r="T23" s="18"/>
-      <c r="U23" s="18"/>
-      <c r="V23" s="18"/>
-      <c r="W23" s="18"/>
-      <c r="X23" s="18"/>
-      <c r="Y23" s="18"/>
-      <c r="Z23" s="18"/>
-      <c r="AA23" s="18"/>
-      <c r="AB23" s="18"/>
-    </row>
-    <row r="24" ht="14.25">
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="24"/>
+      <c r="S23" s="37"/>
+      <c r="T23" s="37"/>
+      <c r="U23" s="37"/>
+      <c r="V23" s="37"/>
+      <c r="W23" s="37"/>
+      <c r="X23" s="36"/>
+      <c r="Y23" s="22"/>
+      <c r="Z23" s="22"/>
+      <c r="AA23" s="22"/>
+      <c r="AB23" s="22"/>
+      <c r="AC23" s="19"/>
+      <c r="AD23" s="24"/>
+      <c r="AE23" s="24"/>
+      <c r="AF23" s="24"/>
+      <c r="AG23" s="24"/>
+    </row>
+    <row r="24" ht="15">
       <c r="B24" s="22">
         <v>10</v>
       </c>
@@ -1473,32 +2653,47 @@
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
       <c r="F24" s="33" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G24" s="33"/>
       <c r="H24" s="33"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="18"/>
-      <c r="O24" s="18"/>
-      <c r="P24" s="18"/>
-      <c r="Q24" s="18"/>
-      <c r="R24" s="18"/>
-      <c r="S24" s="18"/>
-      <c r="T24" s="18"/>
-      <c r="U24" s="18"/>
-      <c r="V24" s="18"/>
-      <c r="W24" s="18"/>
-      <c r="X24" s="18"/>
-      <c r="Y24" s="18"/>
-      <c r="Z24" s="18"/>
-      <c r="AA24" s="18"/>
-      <c r="AB24" s="18"/>
-    </row>
-    <row r="25" ht="14.25">
+      <c r="I24" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="24"/>
+      <c r="S24" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="T24" s="37"/>
+      <c r="U24" s="37"/>
+      <c r="V24" s="37"/>
+      <c r="W24" s="37"/>
+      <c r="X24" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y24" s="22"/>
+      <c r="Z24" s="22"/>
+      <c r="AA24" s="22"/>
+      <c r="AB24" s="22"/>
+      <c r="AC24" s="19"/>
+      <c r="AD24" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE24" s="24"/>
+      <c r="AF24" s="24"/>
+      <c r="AG24" s="24"/>
+    </row>
+    <row r="25" ht="15">
       <c r="B25" s="22"/>
       <c r="C25" s="20"/>
       <c r="D25" s="20"/>
@@ -1506,26 +2701,31 @@
       <c r="F25" s="33"/>
       <c r="G25" s="33"/>
       <c r="H25" s="33"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="18"/>
-      <c r="O25" s="18"/>
-      <c r="P25" s="18"/>
-      <c r="Q25" s="18"/>
-      <c r="R25" s="18"/>
-      <c r="S25" s="18"/>
-      <c r="T25" s="18"/>
-      <c r="U25" s="18"/>
-      <c r="V25" s="18"/>
-      <c r="W25" s="18"/>
-      <c r="X25" s="18"/>
-      <c r="Y25" s="18"/>
-      <c r="Z25" s="18"/>
-      <c r="AA25" s="18"/>
-      <c r="AB25" s="18"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
+      <c r="S25" s="37"/>
+      <c r="T25" s="37"/>
+      <c r="U25" s="37"/>
+      <c r="V25" s="37"/>
+      <c r="W25" s="37"/>
+      <c r="X25" s="36"/>
+      <c r="Y25" s="22"/>
+      <c r="Z25" s="22"/>
+      <c r="AA25" s="22"/>
+      <c r="AB25" s="22"/>
+      <c r="AC25" s="19"/>
+      <c r="AD25" s="24"/>
+      <c r="AE25" s="24"/>
+      <c r="AF25" s="24"/>
+      <c r="AG25" s="24"/>
     </row>
     <row r="26" ht="14.25">
       <c r="B26" s="22">
@@ -1534,62 +2734,80 @@
       <c r="C26" s="20"/>
       <c r="D26" s="20"/>
       <c r="E26" s="20"/>
-      <c r="F26" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="18"/>
-      <c r="O26" s="18"/>
-      <c r="P26" s="18"/>
-      <c r="Q26" s="18"/>
-      <c r="R26" s="18"/>
-      <c r="S26" s="18"/>
-      <c r="T26" s="18"/>
-      <c r="U26" s="18"/>
-      <c r="V26" s="18"/>
-      <c r="W26" s="18"/>
-      <c r="X26" s="18"/>
-      <c r="Y26" s="18"/>
-      <c r="Z26" s="18"/>
-      <c r="AA26" s="18"/>
-      <c r="AB26" s="18"/>
+      <c r="F26" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="22"/>
+      <c r="S26" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="T26" s="48"/>
+      <c r="U26" s="48"/>
+      <c r="V26" s="48"/>
+      <c r="W26" s="48"/>
+      <c r="X26" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y26" s="22"/>
+      <c r="Z26" s="22"/>
+      <c r="AA26" s="22"/>
+      <c r="AB26" s="22"/>
+      <c r="AC26" s="19"/>
+      <c r="AD26" s="19"/>
+      <c r="AE26" s="19"/>
+      <c r="AF26" s="19"/>
+      <c r="AG26" s="19"/>
     </row>
     <row r="27" ht="14.25">
       <c r="B27" s="22"/>
       <c r="C27" s="20"/>
       <c r="D27" s="20"/>
       <c r="E27" s="20"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="18"/>
-      <c r="O27" s="18"/>
-      <c r="P27" s="18"/>
-      <c r="Q27" s="18"/>
-      <c r="R27" s="18"/>
-      <c r="S27" s="18"/>
-      <c r="T27" s="18"/>
-      <c r="U27" s="18"/>
-      <c r="V27" s="18"/>
-      <c r="W27" s="18"/>
-      <c r="X27" s="18"/>
-      <c r="Y27" s="18"/>
-      <c r="Z27" s="18"/>
-      <c r="AA27" s="18"/>
-      <c r="AB27" s="18"/>
-    </row>
-    <row r="28" ht="14.25">
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="22"/>
+      <c r="S27" s="48"/>
+      <c r="T27" s="48"/>
+      <c r="U27" s="48"/>
+      <c r="V27" s="48"/>
+      <c r="W27" s="48"/>
+      <c r="X27" s="24"/>
+      <c r="Y27" s="22"/>
+      <c r="Z27" s="22"/>
+      <c r="AA27" s="22"/>
+      <c r="AB27" s="22"/>
+      <c r="AC27" s="19"/>
+      <c r="AD27" s="19"/>
+      <c r="AE27" s="19"/>
+      <c r="AF27" s="19"/>
+      <c r="AG27" s="19"/>
+    </row>
+    <row r="28" ht="15">
       <c r="B28" s="22">
         <v>12</v>
       </c>
@@ -1597,32 +2815,47 @@
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="33" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G28" s="33"/>
       <c r="H28" s="33"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="18"/>
-      <c r="O28" s="18"/>
-      <c r="P28" s="18"/>
-      <c r="Q28" s="18"/>
-      <c r="R28" s="18"/>
-      <c r="S28" s="18"/>
-      <c r="T28" s="18"/>
-      <c r="U28" s="18"/>
-      <c r="V28" s="18"/>
-      <c r="W28" s="18"/>
-      <c r="X28" s="18"/>
-      <c r="Y28" s="18"/>
-      <c r="Z28" s="18"/>
-      <c r="AA28" s="18"/>
-      <c r="AB28" s="18"/>
-    </row>
-    <row r="29" ht="14.25">
+      <c r="I28" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="66" t="s">
+        <v>153</v>
+      </c>
+      <c r="M28" s="92"/>
+      <c r="N28" s="92"/>
+      <c r="O28" s="92"/>
+      <c r="P28" s="92"/>
+      <c r="Q28" s="92"/>
+      <c r="R28" s="92"/>
+      <c r="S28" s="46" t="s">
+        <v>146</v>
+      </c>
+      <c r="T28" s="37"/>
+      <c r="U28" s="37"/>
+      <c r="V28" s="37"/>
+      <c r="W28" s="37"/>
+      <c r="X28" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y28" s="22"/>
+      <c r="Z28" s="22"/>
+      <c r="AA28" s="22"/>
+      <c r="AB28" s="22"/>
+      <c r="AC28" s="19"/>
+      <c r="AD28" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE28" s="22"/>
+      <c r="AF28" s="22"/>
+      <c r="AG28" s="22"/>
+    </row>
+    <row r="29" ht="15">
       <c r="B29" s="22"/>
       <c r="C29" s="20"/>
       <c r="D29" s="20"/>
@@ -1630,28 +2863,33 @@
       <c r="F29" s="33"/>
       <c r="G29" s="33"/>
       <c r="H29" s="33"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="18"/>
-      <c r="O29" s="18"/>
-      <c r="P29" s="18"/>
-      <c r="Q29" s="18"/>
-      <c r="R29" s="18"/>
-      <c r="S29" s="18"/>
-      <c r="T29" s="18"/>
-      <c r="U29" s="18"/>
-      <c r="V29" s="18"/>
-      <c r="W29" s="18"/>
-      <c r="X29" s="18"/>
-      <c r="Y29" s="18"/>
-      <c r="Z29" s="18"/>
-      <c r="AA29" s="18"/>
-      <c r="AB29" s="18"/>
-    </row>
-    <row r="30" ht="14.25">
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="92"/>
+      <c r="M29" s="92"/>
+      <c r="N29" s="92"/>
+      <c r="O29" s="92"/>
+      <c r="P29" s="92"/>
+      <c r="Q29" s="92"/>
+      <c r="R29" s="92"/>
+      <c r="S29" s="37"/>
+      <c r="T29" s="37"/>
+      <c r="U29" s="37"/>
+      <c r="V29" s="37"/>
+      <c r="W29" s="37"/>
+      <c r="X29" s="24"/>
+      <c r="Y29" s="22"/>
+      <c r="Z29" s="22"/>
+      <c r="AA29" s="22"/>
+      <c r="AB29" s="22"/>
+      <c r="AC29" s="19"/>
+      <c r="AD29" s="22"/>
+      <c r="AE29" s="22"/>
+      <c r="AF29" s="22"/>
+      <c r="AG29" s="22"/>
+    </row>
+    <row r="30" ht="15">
       <c r="B30" s="22">
         <v>13</v>
       </c>
@@ -1659,30 +2897,45 @@
       <c r="D30" s="20"/>
       <c r="E30" s="20"/>
       <c r="F30" s="33" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G30" s="33"/>
       <c r="H30" s="33"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="18"/>
-      <c r="O30" s="18"/>
-      <c r="P30" s="18"/>
-      <c r="Q30" s="18"/>
-      <c r="R30" s="18"/>
-      <c r="S30" s="18"/>
-      <c r="T30" s="18"/>
-      <c r="U30" s="18"/>
-      <c r="V30" s="18"/>
-      <c r="W30" s="18"/>
-      <c r="X30" s="18"/>
-      <c r="Y30" s="18"/>
-      <c r="Z30" s="18"/>
-      <c r="AA30" s="18"/>
-      <c r="AB30" s="18"/>
+      <c r="I30" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="J30" s="36"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="66" t="s">
+        <v>164</v>
+      </c>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="22"/>
+      <c r="R30" s="22"/>
+      <c r="S30" s="46" t="s">
+        <v>146</v>
+      </c>
+      <c r="T30" s="37"/>
+      <c r="U30" s="37"/>
+      <c r="V30" s="37"/>
+      <c r="W30" s="37"/>
+      <c r="X30" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y30" s="22"/>
+      <c r="Z30" s="22"/>
+      <c r="AA30" s="22"/>
+      <c r="AB30" s="22"/>
+      <c r="AC30" s="19"/>
+      <c r="AD30" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE30" s="22"/>
+      <c r="AF30" s="22"/>
+      <c r="AG30" s="22"/>
     </row>
     <row r="31" ht="14.25">
       <c r="B31" s="22"/>
@@ -1692,65 +2945,4113 @@
       <c r="F31" s="33"/>
       <c r="G31" s="33"/>
       <c r="H31" s="33"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="18"/>
-      <c r="O31" s="18"/>
-      <c r="P31" s="18"/>
-      <c r="Q31" s="18"/>
-      <c r="R31" s="18"/>
-      <c r="S31" s="18"/>
-      <c r="T31" s="18"/>
-      <c r="U31" s="18"/>
-      <c r="V31" s="18"/>
-      <c r="W31" s="18"/>
-      <c r="X31" s="18"/>
-      <c r="Y31" s="18"/>
-      <c r="Z31" s="18"/>
-      <c r="AA31" s="18"/>
-      <c r="AB31" s="18"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="22"/>
+      <c r="Q31" s="22"/>
+      <c r="R31" s="22"/>
+      <c r="S31" s="37"/>
+      <c r="T31" s="37"/>
+      <c r="U31" s="37"/>
+      <c r="V31" s="37"/>
+      <c r="W31" s="37"/>
+      <c r="X31" s="36"/>
+      <c r="Y31" s="22"/>
+      <c r="Z31" s="22"/>
+      <c r="AA31" s="22"/>
+      <c r="AB31" s="22"/>
+      <c r="AC31" s="19"/>
+      <c r="AD31" s="22"/>
+      <c r="AE31" s="22"/>
+      <c r="AF31" s="22"/>
+      <c r="AG31" s="22"/>
+    </row>
+    <row r="32" ht="15">
+      <c r="B32" s="22">
+        <v>14</v>
+      </c>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="66" t="s">
+        <v>165</v>
+      </c>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="22"/>
+      <c r="P32" s="22"/>
+      <c r="Q32" s="22"/>
+      <c r="R32" s="22"/>
+      <c r="S32" s="46" t="s">
+        <v>146</v>
+      </c>
+      <c r="T32" s="37"/>
+      <c r="U32" s="37"/>
+      <c r="V32" s="37"/>
+      <c r="W32" s="37"/>
+      <c r="X32" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y32" s="22"/>
+      <c r="Z32" s="22"/>
+      <c r="AA32" s="22"/>
+      <c r="AB32" s="22"/>
+      <c r="AC32" s="19"/>
+      <c r="AD32" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE32" s="22"/>
+      <c r="AF32" s="22"/>
+      <c r="AG32" s="22"/>
+    </row>
+    <row r="33" ht="15">
+      <c r="B33" s="22"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="22"/>
+      <c r="P33" s="22"/>
+      <c r="Q33" s="22"/>
+      <c r="R33" s="22"/>
+      <c r="S33" s="37"/>
+      <c r="T33" s="37"/>
+      <c r="U33" s="37"/>
+      <c r="V33" s="37"/>
+      <c r="W33" s="37"/>
+      <c r="X33" s="36"/>
+      <c r="Y33" s="22"/>
+      <c r="Z33" s="22"/>
+      <c r="AA33" s="22"/>
+      <c r="AB33" s="22"/>
+      <c r="AC33" s="19"/>
+      <c r="AD33" s="22"/>
+      <c r="AE33" s="22"/>
+      <c r="AF33" s="22"/>
+      <c r="AG33" s="22"/>
+    </row>
+    <row r="34" ht="15">
+      <c r="B34" s="22">
+        <v>15</v>
+      </c>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="66" t="s">
+        <v>166</v>
+      </c>
+      <c r="M34" s="22"/>
+      <c r="N34" s="22"/>
+      <c r="O34" s="22"/>
+      <c r="P34" s="22"/>
+      <c r="Q34" s="22"/>
+      <c r="R34" s="22"/>
+      <c r="S34" s="46" t="s">
+        <v>146</v>
+      </c>
+      <c r="T34" s="37"/>
+      <c r="U34" s="37"/>
+      <c r="V34" s="37"/>
+      <c r="W34" s="37"/>
+      <c r="X34" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y34" s="22"/>
+      <c r="Z34" s="22"/>
+      <c r="AA34" s="22"/>
+      <c r="AB34" s="22"/>
+      <c r="AC34" s="19"/>
+      <c r="AD34" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE34" s="22"/>
+      <c r="AF34" s="22"/>
+      <c r="AG34" s="22"/>
+    </row>
+    <row r="35" ht="15">
+      <c r="B35" s="22"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="22"/>
+      <c r="P35" s="22"/>
+      <c r="Q35" s="22"/>
+      <c r="R35" s="22"/>
+      <c r="S35" s="37"/>
+      <c r="T35" s="37"/>
+      <c r="U35" s="37"/>
+      <c r="V35" s="37"/>
+      <c r="W35" s="37"/>
+      <c r="X35" s="36"/>
+      <c r="Y35" s="22"/>
+      <c r="Z35" s="22"/>
+      <c r="AA35" s="22"/>
+      <c r="AB35" s="22"/>
+      <c r="AC35" s="19"/>
+      <c r="AD35" s="22"/>
+      <c r="AE35" s="22"/>
+      <c r="AF35" s="22"/>
+      <c r="AG35" s="22"/>
+    </row>
+    <row r="36" ht="15">
+      <c r="B36" s="22">
+        <v>16</v>
+      </c>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="66" t="s">
+        <v>168</v>
+      </c>
+      <c r="M36" s="22"/>
+      <c r="N36" s="22"/>
+      <c r="O36" s="22"/>
+      <c r="P36" s="22"/>
+      <c r="Q36" s="22"/>
+      <c r="R36" s="22"/>
+      <c r="S36" s="46" t="s">
+        <v>146</v>
+      </c>
+      <c r="T36" s="37"/>
+      <c r="U36" s="37"/>
+      <c r="V36" s="37"/>
+      <c r="W36" s="37"/>
+      <c r="X36" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y36" s="22"/>
+      <c r="Z36" s="22"/>
+      <c r="AA36" s="22"/>
+      <c r="AB36" s="22"/>
+      <c r="AC36" s="19"/>
+      <c r="AD36" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE36" s="22"/>
+      <c r="AF36" s="22"/>
+      <c r="AG36" s="22"/>
+    </row>
+    <row r="37" ht="14.25">
+      <c r="B37" s="22"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="22"/>
+      <c r="P37" s="22"/>
+      <c r="Q37" s="22"/>
+      <c r="R37" s="22"/>
+      <c r="S37" s="37"/>
+      <c r="T37" s="37"/>
+      <c r="U37" s="37"/>
+      <c r="V37" s="37"/>
+      <c r="W37" s="37"/>
+      <c r="X37" s="36"/>
+      <c r="Y37" s="22"/>
+      <c r="Z37" s="22"/>
+      <c r="AA37" s="22"/>
+      <c r="AB37" s="22"/>
+      <c r="AC37" s="19"/>
+      <c r="AD37" s="22"/>
+      <c r="AE37" s="22"/>
+      <c r="AF37" s="22"/>
+      <c r="AG37" s="22"/>
+    </row>
+    <row r="38" ht="15">
+      <c r="B38" s="22">
+        <v>17</v>
+      </c>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="M38" s="22"/>
+      <c r="N38" s="22"/>
+      <c r="O38" s="22"/>
+      <c r="P38" s="22"/>
+      <c r="Q38" s="22"/>
+      <c r="R38" s="22"/>
+      <c r="S38" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="T38" s="48"/>
+      <c r="U38" s="48"/>
+      <c r="V38" s="48"/>
+      <c r="W38" s="48"/>
+      <c r="X38" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y38" s="22"/>
+      <c r="Z38" s="22"/>
+      <c r="AA38" s="22"/>
+      <c r="AB38" s="22"/>
+      <c r="AC38" s="19"/>
+      <c r="AD38" s="19"/>
+      <c r="AE38" s="19"/>
+      <c r="AF38" s="19"/>
+      <c r="AG38" s="19"/>
+    </row>
+    <row r="39" ht="15">
+      <c r="B39" s="22"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="22"/>
+      <c r="O39" s="22"/>
+      <c r="P39" s="22"/>
+      <c r="Q39" s="22"/>
+      <c r="R39" s="22"/>
+      <c r="S39" s="48"/>
+      <c r="T39" s="48"/>
+      <c r="U39" s="48"/>
+      <c r="V39" s="48"/>
+      <c r="W39" s="48"/>
+      <c r="X39" s="24"/>
+      <c r="Y39" s="22"/>
+      <c r="Z39" s="22"/>
+      <c r="AA39" s="22"/>
+      <c r="AB39" s="22"/>
+      <c r="AC39" s="19"/>
+      <c r="AD39" s="19"/>
+      <c r="AE39" s="19"/>
+      <c r="AF39" s="19"/>
+      <c r="AG39" s="19"/>
+    </row>
+    <row r="40" ht="15">
+      <c r="B40" s="22">
+        <v>18</v>
+      </c>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="J40" s="24"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="66" t="s">
+        <v>169</v>
+      </c>
+      <c r="M40" s="92"/>
+      <c r="N40" s="92"/>
+      <c r="O40" s="92"/>
+      <c r="P40" s="92"/>
+      <c r="Q40" s="92"/>
+      <c r="R40" s="92"/>
+      <c r="S40" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="T40" s="37"/>
+      <c r="U40" s="37"/>
+      <c r="V40" s="37"/>
+      <c r="W40" s="37"/>
+      <c r="X40" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y40" s="22"/>
+      <c r="Z40" s="22"/>
+      <c r="AA40" s="22"/>
+      <c r="AB40" s="22"/>
+      <c r="AC40" s="19"/>
+      <c r="AD40" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE40" s="22"/>
+      <c r="AF40" s="22"/>
+      <c r="AG40" s="22"/>
+      <c r="AH40" s="63"/>
+    </row>
+    <row r="41" ht="15">
+      <c r="B41" s="22"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="24"/>
+      <c r="L41" s="92"/>
+      <c r="M41" s="92"/>
+      <c r="N41" s="92"/>
+      <c r="O41" s="92"/>
+      <c r="P41" s="92"/>
+      <c r="Q41" s="92"/>
+      <c r="R41" s="92"/>
+      <c r="S41" s="37"/>
+      <c r="T41" s="37"/>
+      <c r="U41" s="37"/>
+      <c r="V41" s="37"/>
+      <c r="W41" s="37"/>
+      <c r="X41" s="24"/>
+      <c r="Y41" s="22"/>
+      <c r="Z41" s="22"/>
+      <c r="AA41" s="22"/>
+      <c r="AB41" s="22"/>
+      <c r="AC41" s="19"/>
+      <c r="AD41" s="22"/>
+      <c r="AE41" s="22"/>
+      <c r="AF41" s="22"/>
+      <c r="AG41" s="22"/>
+      <c r="AH41" s="63"/>
+    </row>
+    <row r="42" ht="15">
+      <c r="B42" s="22">
+        <v>19</v>
+      </c>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="G42" s="33"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="J42" s="36"/>
+      <c r="K42" s="36"/>
+      <c r="L42" s="66" t="s">
+        <v>170</v>
+      </c>
+      <c r="M42" s="22"/>
+      <c r="N42" s="22"/>
+      <c r="O42" s="22"/>
+      <c r="P42" s="22"/>
+      <c r="Q42" s="22"/>
+      <c r="R42" s="22"/>
+      <c r="S42" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="T42" s="37"/>
+      <c r="U42" s="37"/>
+      <c r="V42" s="37"/>
+      <c r="W42" s="37"/>
+      <c r="X42" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y42" s="22"/>
+      <c r="Z42" s="22"/>
+      <c r="AA42" s="22"/>
+      <c r="AB42" s="22"/>
+      <c r="AC42" s="19"/>
+      <c r="AD42" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE42" s="22"/>
+      <c r="AF42" s="22"/>
+      <c r="AG42" s="22"/>
+    </row>
+    <row r="43" ht="14.25">
+      <c r="B43" s="22"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="36"/>
+      <c r="J43" s="36"/>
+      <c r="K43" s="36"/>
+      <c r="L43" s="22"/>
+      <c r="M43" s="22"/>
+      <c r="N43" s="22"/>
+      <c r="O43" s="22"/>
+      <c r="P43" s="22"/>
+      <c r="Q43" s="22"/>
+      <c r="R43" s="22"/>
+      <c r="S43" s="37"/>
+      <c r="T43" s="37"/>
+      <c r="U43" s="37"/>
+      <c r="V43" s="37"/>
+      <c r="W43" s="37"/>
+      <c r="X43" s="36"/>
+      <c r="Y43" s="22"/>
+      <c r="Z43" s="22"/>
+      <c r="AA43" s="22"/>
+      <c r="AB43" s="22"/>
+      <c r="AC43" s="19"/>
+      <c r="AD43" s="22"/>
+      <c r="AE43" s="22"/>
+      <c r="AF43" s="22"/>
+      <c r="AG43" s="22"/>
+    </row>
+    <row r="44">
+      <c r="B44" s="22">
+        <v>20</v>
+      </c>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="G44" s="33"/>
+      <c r="H44" s="33"/>
+      <c r="I44" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="J44" s="36"/>
+      <c r="K44" s="36"/>
+      <c r="L44" s="66" t="s">
+        <v>171</v>
+      </c>
+      <c r="M44" s="22"/>
+      <c r="N44" s="22"/>
+      <c r="O44" s="22"/>
+      <c r="P44" s="22"/>
+      <c r="Q44" s="22"/>
+      <c r="R44" s="22"/>
+      <c r="S44" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="T44" s="37"/>
+      <c r="U44" s="37"/>
+      <c r="V44" s="37"/>
+      <c r="W44" s="37"/>
+      <c r="X44" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y44" s="22"/>
+      <c r="Z44" s="22"/>
+      <c r="AA44" s="22"/>
+      <c r="AB44" s="22"/>
+      <c r="AC44" s="19"/>
+      <c r="AD44" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE44" s="22"/>
+      <c r="AF44" s="22"/>
+      <c r="AG44" s="22"/>
+    </row>
+    <row r="45">
+      <c r="B45" s="22"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="33"/>
+      <c r="I45" s="36"/>
+      <c r="J45" s="36"/>
+      <c r="K45" s="36"/>
+      <c r="L45" s="22"/>
+      <c r="M45" s="22"/>
+      <c r="N45" s="22"/>
+      <c r="O45" s="22"/>
+      <c r="P45" s="22"/>
+      <c r="Q45" s="22"/>
+      <c r="R45" s="22"/>
+      <c r="S45" s="37"/>
+      <c r="T45" s="37"/>
+      <c r="U45" s="37"/>
+      <c r="V45" s="37"/>
+      <c r="W45" s="37"/>
+      <c r="X45" s="36"/>
+      <c r="Y45" s="22"/>
+      <c r="Z45" s="22"/>
+      <c r="AA45" s="22"/>
+      <c r="AB45" s="22"/>
+      <c r="AC45" s="19"/>
+      <c r="AD45" s="22"/>
+      <c r="AE45" s="22"/>
+      <c r="AF45" s="22"/>
+      <c r="AG45" s="22"/>
+    </row>
+    <row r="46" ht="15">
+      <c r="B46" s="22">
+        <v>21</v>
+      </c>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="G46" s="33"/>
+      <c r="H46" s="33"/>
+      <c r="I46" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="J46" s="36"/>
+      <c r="K46" s="36"/>
+      <c r="L46" s="66" t="s">
+        <v>172</v>
+      </c>
+      <c r="M46" s="22"/>
+      <c r="N46" s="22"/>
+      <c r="O46" s="22"/>
+      <c r="P46" s="22"/>
+      <c r="Q46" s="22"/>
+      <c r="R46" s="22"/>
+      <c r="S46" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="T46" s="37"/>
+      <c r="U46" s="37"/>
+      <c r="V46" s="37"/>
+      <c r="W46" s="37"/>
+      <c r="X46" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y46" s="22"/>
+      <c r="Z46" s="22"/>
+      <c r="AA46" s="22"/>
+      <c r="AB46" s="22"/>
+      <c r="AC46" s="19"/>
+      <c r="AD46" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE46" s="22"/>
+      <c r="AF46" s="22"/>
+      <c r="AG46" s="22"/>
+    </row>
+    <row r="47">
+      <c r="B47" s="22"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="33"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="33"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="22"/>
+      <c r="M47" s="22"/>
+      <c r="N47" s="22"/>
+      <c r="O47" s="22"/>
+      <c r="P47" s="22"/>
+      <c r="Q47" s="22"/>
+      <c r="R47" s="22"/>
+      <c r="S47" s="37"/>
+      <c r="T47" s="37"/>
+      <c r="U47" s="37"/>
+      <c r="V47" s="37"/>
+      <c r="W47" s="37"/>
+      <c r="X47" s="36"/>
+      <c r="Y47" s="22"/>
+      <c r="Z47" s="22"/>
+      <c r="AA47" s="22"/>
+      <c r="AB47" s="22"/>
+      <c r="AC47" s="19"/>
+      <c r="AD47" s="22"/>
+      <c r="AE47" s="22"/>
+      <c r="AF47" s="22"/>
+      <c r="AG47" s="22"/>
+    </row>
+    <row r="48">
+      <c r="B48" s="22">
+        <v>22</v>
+      </c>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="G48" s="33"/>
+      <c r="H48" s="33"/>
+      <c r="I48" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="J48" s="36"/>
+      <c r="K48" s="36"/>
+      <c r="L48" s="66" t="s">
+        <v>173</v>
+      </c>
+      <c r="M48" s="22"/>
+      <c r="N48" s="22"/>
+      <c r="O48" s="22"/>
+      <c r="P48" s="22"/>
+      <c r="Q48" s="22"/>
+      <c r="R48" s="22"/>
+      <c r="S48" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="T48" s="37"/>
+      <c r="U48" s="37"/>
+      <c r="V48" s="37"/>
+      <c r="W48" s="37"/>
+      <c r="X48" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y48" s="22"/>
+      <c r="Z48" s="22"/>
+      <c r="AA48" s="22"/>
+      <c r="AB48" s="22"/>
+      <c r="AC48" s="19"/>
+      <c r="AD48" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE48" s="22"/>
+      <c r="AF48" s="22"/>
+      <c r="AG48" s="22"/>
+    </row>
+    <row r="49">
+      <c r="B49" s="22"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="33"/>
+      <c r="I49" s="36"/>
+      <c r="J49" s="36"/>
+      <c r="K49" s="36"/>
+      <c r="L49" s="22"/>
+      <c r="M49" s="22"/>
+      <c r="N49" s="22"/>
+      <c r="O49" s="22"/>
+      <c r="P49" s="22"/>
+      <c r="Q49" s="22"/>
+      <c r="R49" s="22"/>
+      <c r="S49" s="37"/>
+      <c r="T49" s="37"/>
+      <c r="U49" s="37"/>
+      <c r="V49" s="37"/>
+      <c r="W49" s="37"/>
+      <c r="X49" s="36"/>
+      <c r="Y49" s="22"/>
+      <c r="Z49" s="22"/>
+      <c r="AA49" s="22"/>
+      <c r="AB49" s="22"/>
+      <c r="AC49" s="19"/>
+      <c r="AD49" s="22"/>
+      <c r="AE49" s="22"/>
+      <c r="AF49" s="22"/>
+      <c r="AG49" s="22"/>
+    </row>
+    <row r="50">
+      <c r="B50" s="22">
+        <v>23</v>
+      </c>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="G50" s="33"/>
+      <c r="H50" s="33"/>
+      <c r="I50" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="J50" s="24"/>
+      <c r="K50" s="24"/>
+      <c r="L50" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="M50" s="22"/>
+      <c r="N50" s="22"/>
+      <c r="O50" s="22"/>
+      <c r="P50" s="22"/>
+      <c r="Q50" s="22"/>
+      <c r="R50" s="22"/>
+      <c r="S50" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="T50" s="49"/>
+      <c r="U50" s="49"/>
+      <c r="V50" s="49"/>
+      <c r="W50" s="49"/>
+      <c r="X50" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y50" s="22"/>
+      <c r="Z50" s="22"/>
+      <c r="AA50" s="22"/>
+      <c r="AB50" s="22"/>
+      <c r="AC50" s="19"/>
+      <c r="AD50" s="19"/>
+      <c r="AE50" s="19"/>
+      <c r="AF50" s="19"/>
+      <c r="AG50" s="19"/>
+    </row>
+    <row r="51">
+      <c r="B51" s="22"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="33"/>
+      <c r="I51" s="24"/>
+      <c r="J51" s="24"/>
+      <c r="K51" s="24"/>
+      <c r="L51" s="22"/>
+      <c r="M51" s="22"/>
+      <c r="N51" s="22"/>
+      <c r="O51" s="22"/>
+      <c r="P51" s="22"/>
+      <c r="Q51" s="22"/>
+      <c r="R51" s="22"/>
+      <c r="S51" s="49"/>
+      <c r="T51" s="49"/>
+      <c r="U51" s="49"/>
+      <c r="V51" s="49"/>
+      <c r="W51" s="49"/>
+      <c r="X51" s="24"/>
+      <c r="Y51" s="22"/>
+      <c r="Z51" s="22"/>
+      <c r="AA51" s="22"/>
+      <c r="AB51" s="22"/>
+      <c r="AC51" s="19"/>
+      <c r="AD51" s="19"/>
+      <c r="AE51" s="19"/>
+      <c r="AF51" s="19"/>
+      <c r="AG51" s="19"/>
+    </row>
+    <row r="52">
+      <c r="B52" s="22">
+        <v>24</v>
+      </c>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="G52" s="35"/>
+      <c r="H52" s="35"/>
+      <c r="I52" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="J52" s="36"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="55" t="s">
+        <v>174</v>
+      </c>
+      <c r="M52" s="22"/>
+      <c r="N52" s="22"/>
+      <c r="O52" s="22"/>
+      <c r="P52" s="22"/>
+      <c r="Q52" s="22"/>
+      <c r="R52" s="22"/>
+      <c r="S52" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="T52" s="49"/>
+      <c r="U52" s="49"/>
+      <c r="V52" s="49"/>
+      <c r="W52" s="49"/>
+      <c r="X52" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y52" s="22"/>
+      <c r="Z52" s="22"/>
+      <c r="AA52" s="22"/>
+      <c r="AB52" s="22"/>
+      <c r="AC52" s="19"/>
+      <c r="AD52" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE52" s="37"/>
+      <c r="AF52" s="37"/>
+      <c r="AG52" s="37"/>
+    </row>
+    <row r="53">
+      <c r="B53" s="22"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="35"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="36"/>
+      <c r="K53" s="36"/>
+      <c r="L53" s="22"/>
+      <c r="M53" s="22"/>
+      <c r="N53" s="22"/>
+      <c r="O53" s="22"/>
+      <c r="P53" s="22"/>
+      <c r="Q53" s="22"/>
+      <c r="R53" s="22"/>
+      <c r="S53" s="49"/>
+      <c r="T53" s="49"/>
+      <c r="U53" s="49"/>
+      <c r="V53" s="49"/>
+      <c r="W53" s="49"/>
+      <c r="X53" s="36"/>
+      <c r="Y53" s="22"/>
+      <c r="Z53" s="22"/>
+      <c r="AA53" s="22"/>
+      <c r="AB53" s="22"/>
+      <c r="AC53" s="19"/>
+      <c r="AD53" s="37"/>
+      <c r="AE53" s="37"/>
+      <c r="AF53" s="37"/>
+      <c r="AG53" s="37"/>
+    </row>
+    <row r="54">
+      <c r="B54" s="22">
+        <v>25</v>
+      </c>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="G54" s="35"/>
+      <c r="H54" s="35"/>
+      <c r="I54" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="J54" s="36"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="55" t="s">
+        <v>176</v>
+      </c>
+      <c r="M54" s="22"/>
+      <c r="N54" s="22"/>
+      <c r="O54" s="22"/>
+      <c r="P54" s="22"/>
+      <c r="Q54" s="22"/>
+      <c r="R54" s="22"/>
+      <c r="S54" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="T54" s="49"/>
+      <c r="U54" s="49"/>
+      <c r="V54" s="49"/>
+      <c r="W54" s="49"/>
+      <c r="X54" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y54" s="22"/>
+      <c r="Z54" s="22"/>
+      <c r="AA54" s="22"/>
+      <c r="AB54" s="22"/>
+      <c r="AC54" s="19"/>
+      <c r="AD54" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE54" s="37"/>
+      <c r="AF54" s="37"/>
+      <c r="AG54" s="37"/>
+    </row>
+    <row r="55">
+      <c r="B55" s="22"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="35"/>
+      <c r="H55" s="35"/>
+      <c r="I55" s="36"/>
+      <c r="J55" s="36"/>
+      <c r="K55" s="36"/>
+      <c r="L55" s="22"/>
+      <c r="M55" s="22"/>
+      <c r="N55" s="22"/>
+      <c r="O55" s="22"/>
+      <c r="P55" s="22"/>
+      <c r="Q55" s="22"/>
+      <c r="R55" s="22"/>
+      <c r="S55" s="49"/>
+      <c r="T55" s="49"/>
+      <c r="U55" s="49"/>
+      <c r="V55" s="49"/>
+      <c r="W55" s="49"/>
+      <c r="X55" s="36"/>
+      <c r="Y55" s="22"/>
+      <c r="Z55" s="22"/>
+      <c r="AA55" s="22"/>
+      <c r="AB55" s="22"/>
+      <c r="AC55" s="19"/>
+      <c r="AD55" s="37"/>
+      <c r="AE55" s="37"/>
+      <c r="AF55" s="37"/>
+      <c r="AG55" s="37"/>
+    </row>
+    <row r="56">
+      <c r="B56" s="22">
+        <v>26</v>
+      </c>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="G56" s="35"/>
+      <c r="H56" s="35"/>
+      <c r="I56" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="J56" s="36"/>
+      <c r="K56" s="36"/>
+      <c r="L56" s="55" t="s">
+        <v>177</v>
+      </c>
+      <c r="M56" s="22"/>
+      <c r="N56" s="22"/>
+      <c r="O56" s="22"/>
+      <c r="P56" s="22"/>
+      <c r="Q56" s="22"/>
+      <c r="R56" s="22"/>
+      <c r="S56" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="T56" s="49"/>
+      <c r="U56" s="49"/>
+      <c r="V56" s="49"/>
+      <c r="W56" s="49"/>
+      <c r="X56" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y56" s="22"/>
+      <c r="Z56" s="22"/>
+      <c r="AA56" s="22"/>
+      <c r="AB56" s="22"/>
+      <c r="AC56" s="19"/>
+      <c r="AD56" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE56" s="37"/>
+      <c r="AF56" s="37"/>
+      <c r="AG56" s="37"/>
+    </row>
+    <row r="57">
+      <c r="B57" s="22"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="35"/>
+      <c r="G57" s="35"/>
+      <c r="H57" s="35"/>
+      <c r="I57" s="36"/>
+      <c r="J57" s="36"/>
+      <c r="K57" s="36"/>
+      <c r="L57" s="22"/>
+      <c r="M57" s="22"/>
+      <c r="N57" s="22"/>
+      <c r="O57" s="22"/>
+      <c r="P57" s="22"/>
+      <c r="Q57" s="22"/>
+      <c r="R57" s="22"/>
+      <c r="S57" s="49"/>
+      <c r="T57" s="49"/>
+      <c r="U57" s="49"/>
+      <c r="V57" s="49"/>
+      <c r="W57" s="49"/>
+      <c r="X57" s="36"/>
+      <c r="Y57" s="22"/>
+      <c r="Z57" s="22"/>
+      <c r="AA57" s="22"/>
+      <c r="AB57" s="22"/>
+      <c r="AC57" s="19"/>
+      <c r="AD57" s="37"/>
+      <c r="AE57" s="37"/>
+      <c r="AF57" s="37"/>
+      <c r="AG57" s="37"/>
+    </row>
+    <row r="58">
+      <c r="B58" s="22">
+        <v>27</v>
+      </c>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="G58" s="35"/>
+      <c r="H58" s="35"/>
+      <c r="I58" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="J58" s="36"/>
+      <c r="K58" s="36"/>
+      <c r="L58" s="55" t="s">
+        <v>178</v>
+      </c>
+      <c r="M58" s="22"/>
+      <c r="N58" s="22"/>
+      <c r="O58" s="22"/>
+      <c r="P58" s="22"/>
+      <c r="Q58" s="22"/>
+      <c r="R58" s="22"/>
+      <c r="S58" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="T58" s="49"/>
+      <c r="U58" s="49"/>
+      <c r="V58" s="49"/>
+      <c r="W58" s="49"/>
+      <c r="X58" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y58" s="22"/>
+      <c r="Z58" s="22"/>
+      <c r="AA58" s="22"/>
+      <c r="AB58" s="22"/>
+      <c r="AC58" s="19"/>
+      <c r="AD58" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE58" s="37"/>
+      <c r="AF58" s="37"/>
+      <c r="AG58" s="37"/>
+    </row>
+    <row r="59">
+      <c r="B59" s="22"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="35"/>
+      <c r="G59" s="35"/>
+      <c r="H59" s="35"/>
+      <c r="I59" s="36"/>
+      <c r="J59" s="36"/>
+      <c r="K59" s="36"/>
+      <c r="L59" s="22"/>
+      <c r="M59" s="22"/>
+      <c r="N59" s="22"/>
+      <c r="O59" s="22"/>
+      <c r="P59" s="22"/>
+      <c r="Q59" s="22"/>
+      <c r="R59" s="22"/>
+      <c r="S59" s="49"/>
+      <c r="T59" s="49"/>
+      <c r="U59" s="49"/>
+      <c r="V59" s="49"/>
+      <c r="W59" s="49"/>
+      <c r="X59" s="36"/>
+      <c r="Y59" s="22"/>
+      <c r="Z59" s="22"/>
+      <c r="AA59" s="22"/>
+      <c r="AB59" s="22"/>
+      <c r="AC59" s="19"/>
+      <c r="AD59" s="37"/>
+      <c r="AE59" s="37"/>
+      <c r="AF59" s="37"/>
+      <c r="AG59" s="37"/>
+    </row>
+    <row r="60">
+      <c r="B60" s="22">
+        <v>28</v>
+      </c>
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="G60" s="33"/>
+      <c r="H60" s="33"/>
+      <c r="I60" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="J60" s="24"/>
+      <c r="K60" s="24"/>
+      <c r="L60" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="M60" s="22"/>
+      <c r="N60" s="22"/>
+      <c r="O60" s="22"/>
+      <c r="P60" s="22"/>
+      <c r="Q60" s="22"/>
+      <c r="R60" s="22"/>
+      <c r="S60" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="T60" s="48"/>
+      <c r="U60" s="48"/>
+      <c r="V60" s="48"/>
+      <c r="W60" s="48"/>
+      <c r="X60" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y60" s="22"/>
+      <c r="Z60" s="22"/>
+      <c r="AA60" s="22"/>
+      <c r="AB60" s="22"/>
+      <c r="AC60" s="19"/>
+      <c r="AD60" s="19"/>
+      <c r="AE60" s="19"/>
+      <c r="AF60" s="19"/>
+      <c r="AG60" s="19"/>
+    </row>
+    <row r="61">
+      <c r="B61" s="22"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="33"/>
+      <c r="G61" s="33"/>
+      <c r="H61" s="33"/>
+      <c r="I61" s="24"/>
+      <c r="J61" s="24"/>
+      <c r="K61" s="24"/>
+      <c r="L61" s="22"/>
+      <c r="M61" s="22"/>
+      <c r="N61" s="22"/>
+      <c r="O61" s="22"/>
+      <c r="P61" s="22"/>
+      <c r="Q61" s="22"/>
+      <c r="R61" s="22"/>
+      <c r="S61" s="48"/>
+      <c r="T61" s="48"/>
+      <c r="U61" s="48"/>
+      <c r="V61" s="48"/>
+      <c r="W61" s="48"/>
+      <c r="X61" s="24"/>
+      <c r="Y61" s="22"/>
+      <c r="Z61" s="22"/>
+      <c r="AA61" s="22"/>
+      <c r="AB61" s="22"/>
+      <c r="AC61" s="19"/>
+      <c r="AD61" s="19"/>
+      <c r="AE61" s="19"/>
+      <c r="AF61" s="19"/>
+      <c r="AG61" s="19"/>
+    </row>
+    <row r="62">
+      <c r="B62" s="22">
+        <v>29</v>
+      </c>
+      <c r="C62" s="20"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="G62" s="33"/>
+      <c r="H62" s="33"/>
+      <c r="I62" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="J62" s="36"/>
+      <c r="K62" s="36"/>
+      <c r="L62" s="93" t="s">
+        <v>179</v>
+      </c>
+      <c r="M62" s="93"/>
+      <c r="N62" s="93"/>
+      <c r="O62" s="93"/>
+      <c r="P62" s="93"/>
+      <c r="Q62" s="93"/>
+      <c r="R62" s="93"/>
+      <c r="S62" s="46" t="s">
+        <v>148</v>
+      </c>
+      <c r="T62" s="37"/>
+      <c r="U62" s="37"/>
+      <c r="V62" s="37"/>
+      <c r="W62" s="37"/>
+      <c r="X62" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y62" s="22"/>
+      <c r="Z62" s="22"/>
+      <c r="AA62" s="22"/>
+      <c r="AB62" s="22"/>
+      <c r="AC62" s="19"/>
+      <c r="AD62" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE62" s="37"/>
+      <c r="AF62" s="37"/>
+      <c r="AG62" s="37"/>
+    </row>
+    <row r="63">
+      <c r="B63" s="22"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="33"/>
+      <c r="G63" s="33"/>
+      <c r="H63" s="33"/>
+      <c r="I63" s="36"/>
+      <c r="J63" s="36"/>
+      <c r="K63" s="36"/>
+      <c r="L63" s="93"/>
+      <c r="M63" s="93"/>
+      <c r="N63" s="93"/>
+      <c r="O63" s="93"/>
+      <c r="P63" s="93"/>
+      <c r="Q63" s="93"/>
+      <c r="R63" s="93"/>
+      <c r="S63" s="37"/>
+      <c r="T63" s="37"/>
+      <c r="U63" s="37"/>
+      <c r="V63" s="37"/>
+      <c r="W63" s="37"/>
+      <c r="X63" s="36"/>
+      <c r="Y63" s="22"/>
+      <c r="Z63" s="22"/>
+      <c r="AA63" s="22"/>
+      <c r="AB63" s="22"/>
+      <c r="AC63" s="19"/>
+      <c r="AD63" s="37"/>
+      <c r="AE63" s="37"/>
+      <c r="AF63" s="37"/>
+      <c r="AG63" s="37"/>
+    </row>
+    <row r="64">
+      <c r="B64" s="22">
+        <v>30</v>
+      </c>
+      <c r="C64" s="20"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="G64" s="33"/>
+      <c r="H64" s="33"/>
+      <c r="I64" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="J64" s="36"/>
+      <c r="K64" s="36"/>
+      <c r="L64" s="92" t="s">
+        <v>180</v>
+      </c>
+      <c r="M64" s="92"/>
+      <c r="N64" s="92"/>
+      <c r="O64" s="92"/>
+      <c r="P64" s="92"/>
+      <c r="Q64" s="92"/>
+      <c r="R64" s="92"/>
+      <c r="S64" s="46" t="s">
+        <v>148</v>
+      </c>
+      <c r="T64" s="37"/>
+      <c r="U64" s="37"/>
+      <c r="V64" s="37"/>
+      <c r="W64" s="37"/>
+      <c r="X64" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y64" s="22"/>
+      <c r="Z64" s="22"/>
+      <c r="AA64" s="22"/>
+      <c r="AB64" s="22"/>
+      <c r="AC64" s="19"/>
+      <c r="AD64" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE64" s="37"/>
+      <c r="AF64" s="37"/>
+      <c r="AG64" s="37"/>
+    </row>
+    <row r="65">
+      <c r="B65" s="22"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="33"/>
+      <c r="G65" s="33"/>
+      <c r="H65" s="33"/>
+      <c r="I65" s="36"/>
+      <c r="J65" s="36"/>
+      <c r="K65" s="36"/>
+      <c r="L65" s="92"/>
+      <c r="M65" s="92"/>
+      <c r="N65" s="92"/>
+      <c r="O65" s="92"/>
+      <c r="P65" s="92"/>
+      <c r="Q65" s="92"/>
+      <c r="R65" s="92"/>
+      <c r="S65" s="37"/>
+      <c r="T65" s="37"/>
+      <c r="U65" s="37"/>
+      <c r="V65" s="37"/>
+      <c r="W65" s="37"/>
+      <c r="X65" s="36"/>
+      <c r="Y65" s="22"/>
+      <c r="Z65" s="22"/>
+      <c r="AA65" s="22"/>
+      <c r="AB65" s="22"/>
+      <c r="AC65" s="19"/>
+      <c r="AD65" s="37"/>
+      <c r="AE65" s="37"/>
+      <c r="AF65" s="37"/>
+      <c r="AG65" s="37"/>
+    </row>
+    <row r="66">
+      <c r="B66" s="22">
+        <v>31</v>
+      </c>
+      <c r="C66" s="20"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="G66" s="33"/>
+      <c r="H66" s="33"/>
+      <c r="I66" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="J66" s="36"/>
+      <c r="K66" s="36"/>
+      <c r="L66" s="92" t="s">
+        <v>181</v>
+      </c>
+      <c r="M66" s="92"/>
+      <c r="N66" s="92"/>
+      <c r="O66" s="92"/>
+      <c r="P66" s="92"/>
+      <c r="Q66" s="92"/>
+      <c r="R66" s="92"/>
+      <c r="S66" s="46" t="s">
+        <v>148</v>
+      </c>
+      <c r="T66" s="37"/>
+      <c r="U66" s="37"/>
+      <c r="V66" s="37"/>
+      <c r="W66" s="37"/>
+      <c r="X66" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y66" s="22"/>
+      <c r="Z66" s="22"/>
+      <c r="AA66" s="22"/>
+      <c r="AB66" s="22"/>
+      <c r="AC66" s="19"/>
+      <c r="AD66" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE66" s="37"/>
+      <c r="AF66" s="37"/>
+      <c r="AG66" s="37"/>
+    </row>
+    <row r="67">
+      <c r="B67" s="22"/>
+      <c r="C67" s="20"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="33"/>
+      <c r="G67" s="33"/>
+      <c r="H67" s="33"/>
+      <c r="I67" s="36"/>
+      <c r="J67" s="36"/>
+      <c r="K67" s="36"/>
+      <c r="L67" s="92"/>
+      <c r="M67" s="92"/>
+      <c r="N67" s="92"/>
+      <c r="O67" s="92"/>
+      <c r="P67" s="92"/>
+      <c r="Q67" s="92"/>
+      <c r="R67" s="92"/>
+      <c r="S67" s="37"/>
+      <c r="T67" s="37"/>
+      <c r="U67" s="37"/>
+      <c r="V67" s="37"/>
+      <c r="W67" s="37"/>
+      <c r="X67" s="36"/>
+      <c r="Y67" s="22"/>
+      <c r="Z67" s="22"/>
+      <c r="AA67" s="22"/>
+      <c r="AB67" s="22"/>
+      <c r="AC67" s="19"/>
+      <c r="AD67" s="37"/>
+      <c r="AE67" s="37"/>
+      <c r="AF67" s="37"/>
+      <c r="AG67" s="37"/>
+    </row>
+    <row r="68">
+      <c r="B68" s="22">
+        <v>32</v>
+      </c>
+      <c r="C68" s="20"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="20"/>
+      <c r="F68" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="G68" s="33"/>
+      <c r="H68" s="33"/>
+      <c r="I68" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="J68" s="36"/>
+      <c r="K68" s="36"/>
+      <c r="L68" s="92" t="s">
+        <v>182</v>
+      </c>
+      <c r="M68" s="92"/>
+      <c r="N68" s="92"/>
+      <c r="O68" s="92"/>
+      <c r="P68" s="92"/>
+      <c r="Q68" s="92"/>
+      <c r="R68" s="92"/>
+      <c r="S68" s="46" t="s">
+        <v>148</v>
+      </c>
+      <c r="T68" s="37"/>
+      <c r="U68" s="37"/>
+      <c r="V68" s="37"/>
+      <c r="W68" s="37"/>
+      <c r="X68" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y68" s="22"/>
+      <c r="Z68" s="22"/>
+      <c r="AA68" s="22"/>
+      <c r="AB68" s="22"/>
+      <c r="AC68" s="19"/>
+      <c r="AD68" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE68" s="37"/>
+      <c r="AF68" s="37"/>
+      <c r="AG68" s="37"/>
+    </row>
+    <row r="69">
+      <c r="B69" s="22"/>
+      <c r="C69" s="20"/>
+      <c r="D69" s="20"/>
+      <c r="E69" s="20"/>
+      <c r="F69" s="33"/>
+      <c r="G69" s="33"/>
+      <c r="H69" s="33"/>
+      <c r="I69" s="36"/>
+      <c r="J69" s="36"/>
+      <c r="K69" s="36"/>
+      <c r="L69" s="92"/>
+      <c r="M69" s="92"/>
+      <c r="N69" s="92"/>
+      <c r="O69" s="92"/>
+      <c r="P69" s="92"/>
+      <c r="Q69" s="92"/>
+      <c r="R69" s="92"/>
+      <c r="S69" s="37"/>
+      <c r="T69" s="37"/>
+      <c r="U69" s="37"/>
+      <c r="V69" s="37"/>
+      <c r="W69" s="37"/>
+      <c r="X69" s="36"/>
+      <c r="Y69" s="22"/>
+      <c r="Z69" s="22"/>
+      <c r="AA69" s="22"/>
+      <c r="AB69" s="22"/>
+      <c r="AC69" s="19"/>
+      <c r="AD69" s="37"/>
+      <c r="AE69" s="37"/>
+      <c r="AF69" s="37"/>
+      <c r="AG69" s="37"/>
+    </row>
+    <row r="70">
+      <c r="B70" s="22">
+        <v>33</v>
+      </c>
+      <c r="C70" s="20"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="20"/>
+      <c r="F70" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="G70" s="33"/>
+      <c r="H70" s="33"/>
+      <c r="I70" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="J70" s="36"/>
+      <c r="K70" s="36"/>
+      <c r="L70" s="92" t="s">
+        <v>183</v>
+      </c>
+      <c r="M70" s="92"/>
+      <c r="N70" s="92"/>
+      <c r="O70" s="92"/>
+      <c r="P70" s="92"/>
+      <c r="Q70" s="92"/>
+      <c r="R70" s="92"/>
+      <c r="S70" s="46" t="s">
+        <v>148</v>
+      </c>
+      <c r="T70" s="37"/>
+      <c r="U70" s="37"/>
+      <c r="V70" s="37"/>
+      <c r="W70" s="37"/>
+      <c r="X70" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y70" s="22"/>
+      <c r="Z70" s="22"/>
+      <c r="AA70" s="22"/>
+      <c r="AB70" s="22"/>
+      <c r="AC70" s="19"/>
+      <c r="AD70" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE70" s="37"/>
+      <c r="AF70" s="37"/>
+      <c r="AG70" s="37"/>
+    </row>
+    <row r="71">
+      <c r="B71" s="22"/>
+      <c r="C71" s="20"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="20"/>
+      <c r="F71" s="33"/>
+      <c r="G71" s="33"/>
+      <c r="H71" s="33"/>
+      <c r="I71" s="36"/>
+      <c r="J71" s="36"/>
+      <c r="K71" s="36"/>
+      <c r="L71" s="92"/>
+      <c r="M71" s="92"/>
+      <c r="N71" s="92"/>
+      <c r="O71" s="92"/>
+      <c r="P71" s="92"/>
+      <c r="Q71" s="92"/>
+      <c r="R71" s="92"/>
+      <c r="S71" s="37"/>
+      <c r="T71" s="37"/>
+      <c r="U71" s="37"/>
+      <c r="V71" s="37"/>
+      <c r="W71" s="37"/>
+      <c r="X71" s="36"/>
+      <c r="Y71" s="22"/>
+      <c r="Z71" s="22"/>
+      <c r="AA71" s="22"/>
+      <c r="AB71" s="22"/>
+      <c r="AC71" s="19"/>
+      <c r="AD71" s="37"/>
+      <c r="AE71" s="37"/>
+      <c r="AF71" s="37"/>
+      <c r="AG71" s="37"/>
+    </row>
+    <row r="72">
+      <c r="B72" s="22">
+        <v>34</v>
+      </c>
+      <c r="C72" s="20"/>
+      <c r="D72" s="20"/>
+      <c r="E72" s="20"/>
+      <c r="F72" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="G72" s="33"/>
+      <c r="H72" s="33"/>
+      <c r="I72" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="J72" s="38"/>
+      <c r="K72" s="38"/>
+      <c r="L72" s="92" t="s">
+        <v>121</v>
+      </c>
+      <c r="M72" s="92"/>
+      <c r="N72" s="92"/>
+      <c r="O72" s="92"/>
+      <c r="P72" s="92"/>
+      <c r="Q72" s="92"/>
+      <c r="R72" s="92"/>
+      <c r="S72" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="T72" s="48"/>
+      <c r="U72" s="48"/>
+      <c r="V72" s="48"/>
+      <c r="W72" s="48"/>
+      <c r="X72" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y72" s="22"/>
+      <c r="Z72" s="22"/>
+      <c r="AA72" s="22"/>
+      <c r="AB72" s="22"/>
+      <c r="AC72" s="22"/>
+      <c r="AD72" s="19"/>
+      <c r="AE72" s="19"/>
+      <c r="AF72" s="19"/>
+      <c r="AG72" s="19"/>
+    </row>
+    <row r="73">
+      <c r="B73" s="22"/>
+      <c r="C73" s="20"/>
+      <c r="D73" s="20"/>
+      <c r="E73" s="20"/>
+      <c r="F73" s="33"/>
+      <c r="G73" s="33"/>
+      <c r="H73" s="33"/>
+      <c r="I73" s="38"/>
+      <c r="J73" s="38"/>
+      <c r="K73" s="38"/>
+      <c r="L73" s="92"/>
+      <c r="M73" s="92"/>
+      <c r="N73" s="92"/>
+      <c r="O73" s="92"/>
+      <c r="P73" s="92"/>
+      <c r="Q73" s="92"/>
+      <c r="R73" s="92"/>
+      <c r="S73" s="48"/>
+      <c r="T73" s="48"/>
+      <c r="U73" s="48"/>
+      <c r="V73" s="48"/>
+      <c r="W73" s="48"/>
+      <c r="X73" s="24"/>
+      <c r="Y73" s="22"/>
+      <c r="Z73" s="22"/>
+      <c r="AA73" s="22"/>
+      <c r="AB73" s="22"/>
+      <c r="AC73" s="22"/>
+      <c r="AD73" s="19"/>
+      <c r="AE73" s="19"/>
+      <c r="AF73" s="19"/>
+      <c r="AG73" s="19"/>
+    </row>
+    <row r="74">
+      <c r="B74" s="22">
+        <v>35</v>
+      </c>
+      <c r="C74" s="20"/>
+      <c r="D74" s="20"/>
+      <c r="E74" s="20"/>
+      <c r="F74" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="G74" s="33"/>
+      <c r="H74" s="33"/>
+      <c r="I74" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="J74" s="24"/>
+      <c r="K74" s="24"/>
+      <c r="L74" s="92" t="s">
+        <v>123</v>
+      </c>
+      <c r="M74" s="92"/>
+      <c r="N74" s="92"/>
+      <c r="O74" s="92"/>
+      <c r="P74" s="92"/>
+      <c r="Q74" s="92"/>
+      <c r="R74" s="92"/>
+      <c r="S74" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="T74" s="48"/>
+      <c r="U74" s="48"/>
+      <c r="V74" s="48"/>
+      <c r="W74" s="48"/>
+      <c r="X74" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y74" s="22"/>
+      <c r="Z74" s="22"/>
+      <c r="AA74" s="22"/>
+      <c r="AB74" s="22"/>
+      <c r="AC74" s="22"/>
+      <c r="AD74" s="19"/>
+      <c r="AE74" s="19"/>
+      <c r="AF74" s="19"/>
+      <c r="AG74" s="19"/>
+    </row>
+    <row r="75">
+      <c r="B75" s="22"/>
+      <c r="C75" s="20"/>
+      <c r="D75" s="20"/>
+      <c r="E75" s="20"/>
+      <c r="F75" s="33"/>
+      <c r="G75" s="33"/>
+      <c r="H75" s="33"/>
+      <c r="I75" s="24"/>
+      <c r="J75" s="24"/>
+      <c r="K75" s="24"/>
+      <c r="L75" s="92"/>
+      <c r="M75" s="92"/>
+      <c r="N75" s="92"/>
+      <c r="O75" s="92"/>
+      <c r="P75" s="92"/>
+      <c r="Q75" s="92"/>
+      <c r="R75" s="92"/>
+      <c r="S75" s="48"/>
+      <c r="T75" s="48"/>
+      <c r="U75" s="48"/>
+      <c r="V75" s="48"/>
+      <c r="W75" s="48"/>
+      <c r="X75" s="24"/>
+      <c r="Y75" s="22"/>
+      <c r="Z75" s="22"/>
+      <c r="AA75" s="22"/>
+      <c r="AB75" s="22"/>
+      <c r="AC75" s="22"/>
+      <c r="AD75" s="19"/>
+      <c r="AE75" s="19"/>
+      <c r="AF75" s="19"/>
+      <c r="AG75" s="19"/>
+    </row>
+    <row r="76">
+      <c r="B76" s="22">
+        <v>36</v>
+      </c>
+      <c r="C76" s="20"/>
+      <c r="D76" s="20"/>
+      <c r="E76" s="20"/>
+      <c r="F76" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="G76" s="33"/>
+      <c r="H76" s="33"/>
+      <c r="I76" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="J76" s="36"/>
+      <c r="K76" s="36"/>
+      <c r="L76" s="92" t="s">
+        <v>184</v>
+      </c>
+      <c r="M76" s="92"/>
+      <c r="N76" s="92"/>
+      <c r="O76" s="92"/>
+      <c r="P76" s="92"/>
+      <c r="Q76" s="92"/>
+      <c r="R76" s="92"/>
+      <c r="S76" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="T76" s="37"/>
+      <c r="U76" s="37"/>
+      <c r="V76" s="37"/>
+      <c r="W76" s="37"/>
+      <c r="X76" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y76" s="22"/>
+      <c r="Z76" s="22"/>
+      <c r="AA76" s="22"/>
+      <c r="AB76" s="22"/>
+      <c r="AC76" s="22"/>
+      <c r="AD76" s="53" t="s">
+        <v>152</v>
+      </c>
+      <c r="AE76" s="53"/>
+      <c r="AF76" s="53"/>
+      <c r="AG76" s="53"/>
+    </row>
+    <row r="77">
+      <c r="B77" s="22"/>
+      <c r="C77" s="20"/>
+      <c r="D77" s="20"/>
+      <c r="E77" s="20"/>
+      <c r="F77" s="33"/>
+      <c r="G77" s="33"/>
+      <c r="H77" s="33"/>
+      <c r="I77" s="36"/>
+      <c r="J77" s="36"/>
+      <c r="K77" s="36"/>
+      <c r="L77" s="92"/>
+      <c r="M77" s="92"/>
+      <c r="N77" s="92"/>
+      <c r="O77" s="92"/>
+      <c r="P77" s="92"/>
+      <c r="Q77" s="92"/>
+      <c r="R77" s="92"/>
+      <c r="S77" s="37"/>
+      <c r="T77" s="37"/>
+      <c r="U77" s="37"/>
+      <c r="V77" s="37"/>
+      <c r="W77" s="37"/>
+      <c r="X77" s="36"/>
+      <c r="Y77" s="22"/>
+      <c r="Z77" s="22"/>
+      <c r="AA77" s="22"/>
+      <c r="AB77" s="22"/>
+      <c r="AC77" s="22"/>
+      <c r="AD77" s="53"/>
+      <c r="AE77" s="53"/>
+      <c r="AF77" s="53"/>
+      <c r="AG77" s="53"/>
+    </row>
+    <row r="78">
+      <c r="B78" s="22">
+        <v>37</v>
+      </c>
+      <c r="C78" s="20"/>
+      <c r="D78" s="20"/>
+      <c r="E78" s="20"/>
+      <c r="F78" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="G78" s="33"/>
+      <c r="H78" s="33"/>
+      <c r="I78" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="J78" s="36"/>
+      <c r="K78" s="36"/>
+      <c r="L78" s="92" t="s">
+        <v>126</v>
+      </c>
+      <c r="M78" s="92"/>
+      <c r="N78" s="92"/>
+      <c r="O78" s="92"/>
+      <c r="P78" s="92"/>
+      <c r="Q78" s="92"/>
+      <c r="R78" s="92"/>
+      <c r="S78" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="T78" s="37"/>
+      <c r="U78" s="37"/>
+      <c r="V78" s="37"/>
+      <c r="W78" s="37"/>
+      <c r="X78" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y78" s="22"/>
+      <c r="Z78" s="22"/>
+      <c r="AA78" s="22"/>
+      <c r="AB78" s="22"/>
+      <c r="AC78" s="22"/>
+      <c r="AD78" s="53" t="s">
+        <v>152</v>
+      </c>
+      <c r="AE78" s="53"/>
+      <c r="AF78" s="53"/>
+      <c r="AG78" s="53"/>
+    </row>
+    <row r="79">
+      <c r="B79" s="22"/>
+      <c r="C79" s="20"/>
+      <c r="D79" s="20"/>
+      <c r="E79" s="20"/>
+      <c r="F79" s="33"/>
+      <c r="G79" s="33"/>
+      <c r="H79" s="33"/>
+      <c r="I79" s="36"/>
+      <c r="J79" s="36"/>
+      <c r="K79" s="36"/>
+      <c r="L79" s="92"/>
+      <c r="M79" s="92"/>
+      <c r="N79" s="92"/>
+      <c r="O79" s="92"/>
+      <c r="P79" s="92"/>
+      <c r="Q79" s="92"/>
+      <c r="R79" s="92"/>
+      <c r="S79" s="37"/>
+      <c r="T79" s="37"/>
+      <c r="U79" s="37"/>
+      <c r="V79" s="37"/>
+      <c r="W79" s="37"/>
+      <c r="X79" s="36"/>
+      <c r="Y79" s="22"/>
+      <c r="Z79" s="22"/>
+      <c r="AA79" s="22"/>
+      <c r="AB79" s="22"/>
+      <c r="AC79" s="22"/>
+      <c r="AD79" s="53"/>
+      <c r="AE79" s="53"/>
+      <c r="AF79" s="53"/>
+      <c r="AG79" s="53"/>
+    </row>
+    <row r="80">
+      <c r="B80" s="22">
+        <v>38</v>
+      </c>
+      <c r="C80" s="20"/>
+      <c r="D80" s="20"/>
+      <c r="E80" s="20"/>
+      <c r="F80" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="G80" s="33"/>
+      <c r="H80" s="33"/>
+      <c r="I80" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="J80" s="36"/>
+      <c r="K80" s="36"/>
+      <c r="L80" s="92" t="s">
+        <v>185</v>
+      </c>
+      <c r="M80" s="92"/>
+      <c r="N80" s="92"/>
+      <c r="O80" s="92"/>
+      <c r="P80" s="92"/>
+      <c r="Q80" s="92"/>
+      <c r="R80" s="92"/>
+      <c r="S80" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="T80" s="37"/>
+      <c r="U80" s="37"/>
+      <c r="V80" s="37"/>
+      <c r="W80" s="37"/>
+      <c r="X80" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y80" s="22"/>
+      <c r="Z80" s="22"/>
+      <c r="AA80" s="22"/>
+      <c r="AB80" s="22"/>
+      <c r="AC80" s="22"/>
+      <c r="AD80" s="53" t="s">
+        <v>152</v>
+      </c>
+      <c r="AE80" s="53"/>
+      <c r="AF80" s="53"/>
+      <c r="AG80" s="53"/>
+    </row>
+    <row r="81">
+      <c r="B81" s="22"/>
+      <c r="C81" s="20"/>
+      <c r="D81" s="20"/>
+      <c r="E81" s="20"/>
+      <c r="F81" s="33"/>
+      <c r="G81" s="33"/>
+      <c r="H81" s="33"/>
+      <c r="I81" s="36"/>
+      <c r="J81" s="36"/>
+      <c r="K81" s="36"/>
+      <c r="L81" s="92"/>
+      <c r="M81" s="92"/>
+      <c r="N81" s="92"/>
+      <c r="O81" s="92"/>
+      <c r="P81" s="92"/>
+      <c r="Q81" s="92"/>
+      <c r="R81" s="92"/>
+      <c r="S81" s="37"/>
+      <c r="T81" s="37"/>
+      <c r="U81" s="37"/>
+      <c r="V81" s="37"/>
+      <c r="W81" s="37"/>
+      <c r="X81" s="36"/>
+      <c r="Y81" s="22"/>
+      <c r="Z81" s="22"/>
+      <c r="AA81" s="22"/>
+      <c r="AB81" s="22"/>
+      <c r="AC81" s="22"/>
+      <c r="AD81" s="53"/>
+      <c r="AE81" s="53"/>
+      <c r="AF81" s="53"/>
+      <c r="AG81" s="53"/>
+    </row>
+    <row r="82">
+      <c r="B82" s="22">
+        <v>39</v>
+      </c>
+      <c r="C82" s="20"/>
+      <c r="D82" s="20"/>
+      <c r="E82" s="20"/>
+      <c r="F82" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="G82" s="33"/>
+      <c r="H82" s="33"/>
+      <c r="I82" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="J82" s="36"/>
+      <c r="K82" s="36"/>
+      <c r="L82" s="92" t="s">
+        <v>186</v>
+      </c>
+      <c r="M82" s="92"/>
+      <c r="N82" s="92"/>
+      <c r="O82" s="92"/>
+      <c r="P82" s="92"/>
+      <c r="Q82" s="92"/>
+      <c r="R82" s="92"/>
+      <c r="S82" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="T82" s="37"/>
+      <c r="U82" s="37"/>
+      <c r="V82" s="37"/>
+      <c r="W82" s="37"/>
+      <c r="X82" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y82" s="22"/>
+      <c r="Z82" s="22"/>
+      <c r="AA82" s="22"/>
+      <c r="AB82" s="22"/>
+      <c r="AC82" s="22"/>
+      <c r="AD82" s="53" t="s">
+        <v>152</v>
+      </c>
+      <c r="AE82" s="53"/>
+      <c r="AF82" s="53"/>
+      <c r="AG82" s="53"/>
+    </row>
+    <row r="83">
+      <c r="B83" s="22"/>
+      <c r="C83" s="20"/>
+      <c r="D83" s="20"/>
+      <c r="E83" s="20"/>
+      <c r="F83" s="33"/>
+      <c r="G83" s="33"/>
+      <c r="H83" s="33"/>
+      <c r="I83" s="36"/>
+      <c r="J83" s="36"/>
+      <c r="K83" s="36"/>
+      <c r="L83" s="92"/>
+      <c r="M83" s="92"/>
+      <c r="N83" s="92"/>
+      <c r="O83" s="92"/>
+      <c r="P83" s="92"/>
+      <c r="Q83" s="92"/>
+      <c r="R83" s="92"/>
+      <c r="S83" s="37"/>
+      <c r="T83" s="37"/>
+      <c r="U83" s="37"/>
+      <c r="V83" s="37"/>
+      <c r="W83" s="37"/>
+      <c r="X83" s="36"/>
+      <c r="Y83" s="22"/>
+      <c r="Z83" s="22"/>
+      <c r="AA83" s="22"/>
+      <c r="AB83" s="22"/>
+      <c r="AC83" s="22"/>
+      <c r="AD83" s="53"/>
+      <c r="AE83" s="53"/>
+      <c r="AF83" s="53"/>
+      <c r="AG83" s="53"/>
+    </row>
+    <row r="84">
+      <c r="B84" s="22">
+        <v>40</v>
+      </c>
+      <c r="C84" s="20"/>
+      <c r="D84" s="20"/>
+      <c r="E84" s="20"/>
+      <c r="F84" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="G84" s="33"/>
+      <c r="H84" s="33"/>
+      <c r="I84" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="J84" s="36"/>
+      <c r="K84" s="36"/>
+      <c r="L84" s="92" t="s">
+        <v>187</v>
+      </c>
+      <c r="M84" s="92"/>
+      <c r="N84" s="92"/>
+      <c r="O84" s="92"/>
+      <c r="P84" s="92"/>
+      <c r="Q84" s="92"/>
+      <c r="R84" s="92"/>
+      <c r="S84" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="T84" s="37"/>
+      <c r="U84" s="37"/>
+      <c r="V84" s="37"/>
+      <c r="W84" s="37"/>
+      <c r="X84" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y84" s="22"/>
+      <c r="Z84" s="22"/>
+      <c r="AA84" s="22"/>
+      <c r="AB84" s="22"/>
+      <c r="AC84" s="22"/>
+      <c r="AD84" s="53" t="s">
+        <v>152</v>
+      </c>
+      <c r="AE84" s="53"/>
+      <c r="AF84" s="53"/>
+      <c r="AG84" s="53"/>
+    </row>
+    <row r="85">
+      <c r="B85" s="22"/>
+      <c r="C85" s="20"/>
+      <c r="D85" s="20"/>
+      <c r="E85" s="20"/>
+      <c r="F85" s="33"/>
+      <c r="G85" s="33"/>
+      <c r="H85" s="33"/>
+      <c r="I85" s="36"/>
+      <c r="J85" s="36"/>
+      <c r="K85" s="36"/>
+      <c r="L85" s="92"/>
+      <c r="M85" s="92"/>
+      <c r="N85" s="92"/>
+      <c r="O85" s="92"/>
+      <c r="P85" s="92"/>
+      <c r="Q85" s="92"/>
+      <c r="R85" s="92"/>
+      <c r="S85" s="37"/>
+      <c r="T85" s="37"/>
+      <c r="U85" s="37"/>
+      <c r="V85" s="37"/>
+      <c r="W85" s="37"/>
+      <c r="X85" s="36"/>
+      <c r="Y85" s="22"/>
+      <c r="Z85" s="22"/>
+      <c r="AA85" s="22"/>
+      <c r="AB85" s="22"/>
+      <c r="AC85" s="22"/>
+      <c r="AD85" s="53"/>
+      <c r="AE85" s="53"/>
+      <c r="AF85" s="53"/>
+      <c r="AG85" s="53"/>
+    </row>
+    <row r="86">
+      <c r="B86" s="22">
+        <v>41</v>
+      </c>
+      <c r="C86" s="20"/>
+      <c r="D86" s="20"/>
+      <c r="E86" s="20"/>
+      <c r="F86" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="G86" s="33"/>
+      <c r="H86" s="33"/>
+      <c r="I86" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="J86" s="36"/>
+      <c r="K86" s="36"/>
+      <c r="L86" s="92" t="s">
+        <v>188</v>
+      </c>
+      <c r="M86" s="92"/>
+      <c r="N86" s="92"/>
+      <c r="O86" s="92"/>
+      <c r="P86" s="92"/>
+      <c r="Q86" s="92"/>
+      <c r="R86" s="92"/>
+      <c r="S86" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="T86" s="37"/>
+      <c r="U86" s="37"/>
+      <c r="V86" s="37"/>
+      <c r="W86" s="37"/>
+      <c r="X86" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y86" s="22"/>
+      <c r="Z86" s="22"/>
+      <c r="AA86" s="22"/>
+      <c r="AB86" s="22"/>
+      <c r="AC86" s="22"/>
+      <c r="AD86" s="53" t="s">
+        <v>152</v>
+      </c>
+      <c r="AE86" s="53"/>
+      <c r="AF86" s="53"/>
+      <c r="AG86" s="53"/>
+    </row>
+    <row r="87">
+      <c r="B87" s="22"/>
+      <c r="C87" s="20"/>
+      <c r="D87" s="20"/>
+      <c r="E87" s="20"/>
+      <c r="F87" s="33"/>
+      <c r="G87" s="33"/>
+      <c r="H87" s="33"/>
+      <c r="I87" s="36"/>
+      <c r="J87" s="36"/>
+      <c r="K87" s="36"/>
+      <c r="L87" s="92"/>
+      <c r="M87" s="92"/>
+      <c r="N87" s="92"/>
+      <c r="O87" s="92"/>
+      <c r="P87" s="92"/>
+      <c r="Q87" s="92"/>
+      <c r="R87" s="92"/>
+      <c r="S87" s="37"/>
+      <c r="T87" s="37"/>
+      <c r="U87" s="37"/>
+      <c r="V87" s="37"/>
+      <c r="W87" s="37"/>
+      <c r="X87" s="36"/>
+      <c r="Y87" s="22"/>
+      <c r="Z87" s="22"/>
+      <c r="AA87" s="22"/>
+      <c r="AB87" s="22"/>
+      <c r="AC87" s="22"/>
+      <c r="AD87" s="53"/>
+      <c r="AE87" s="53"/>
+      <c r="AF87" s="53"/>
+      <c r="AG87" s="53"/>
+    </row>
+    <row r="88">
+      <c r="B88" s="22">
+        <v>42</v>
+      </c>
+      <c r="C88" s="20"/>
+      <c r="D88" s="20"/>
+      <c r="E88" s="20"/>
+      <c r="F88" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="G88" s="33"/>
+      <c r="H88" s="33"/>
+      <c r="I88" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="J88" s="36"/>
+      <c r="K88" s="36"/>
+      <c r="L88" s="92" t="s">
+        <v>189</v>
+      </c>
+      <c r="M88" s="92"/>
+      <c r="N88" s="92"/>
+      <c r="O88" s="92"/>
+      <c r="P88" s="92"/>
+      <c r="Q88" s="92"/>
+      <c r="R88" s="92"/>
+      <c r="S88" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="T88" s="37"/>
+      <c r="U88" s="37"/>
+      <c r="V88" s="37"/>
+      <c r="W88" s="37"/>
+      <c r="X88" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y88" s="22"/>
+      <c r="Z88" s="22"/>
+      <c r="AA88" s="22"/>
+      <c r="AB88" s="22"/>
+      <c r="AC88" s="22"/>
+      <c r="AD88" s="53" t="s">
+        <v>152</v>
+      </c>
+      <c r="AE88" s="53"/>
+      <c r="AF88" s="53"/>
+      <c r="AG88" s="53"/>
+    </row>
+    <row r="89">
+      <c r="B89" s="22"/>
+      <c r="C89" s="20"/>
+      <c r="D89" s="20"/>
+      <c r="E89" s="20"/>
+      <c r="F89" s="33"/>
+      <c r="G89" s="33"/>
+      <c r="H89" s="33"/>
+      <c r="I89" s="36"/>
+      <c r="J89" s="36"/>
+      <c r="K89" s="36"/>
+      <c r="L89" s="92"/>
+      <c r="M89" s="92"/>
+      <c r="N89" s="92"/>
+      <c r="O89" s="92"/>
+      <c r="P89" s="92"/>
+      <c r="Q89" s="92"/>
+      <c r="R89" s="92"/>
+      <c r="S89" s="37"/>
+      <c r="T89" s="37"/>
+      <c r="U89" s="37"/>
+      <c r="V89" s="37"/>
+      <c r="W89" s="37"/>
+      <c r="X89" s="36"/>
+      <c r="Y89" s="22"/>
+      <c r="Z89" s="22"/>
+      <c r="AA89" s="22"/>
+      <c r="AB89" s="22"/>
+      <c r="AC89" s="22"/>
+      <c r="AD89" s="53"/>
+      <c r="AE89" s="53"/>
+      <c r="AF89" s="53"/>
+      <c r="AG89" s="53"/>
+    </row>
+    <row r="90">
+      <c r="B90" s="22">
+        <v>43</v>
+      </c>
+      <c r="C90" s="20"/>
+      <c r="D90" s="20"/>
+      <c r="E90" s="20"/>
+      <c r="F90" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="G90" s="33"/>
+      <c r="H90" s="33"/>
+      <c r="I90" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="J90" s="38"/>
+      <c r="K90" s="38"/>
+      <c r="L90" s="92" t="s">
+        <v>115</v>
+      </c>
+      <c r="M90" s="92"/>
+      <c r="N90" s="92"/>
+      <c r="O90" s="92"/>
+      <c r="P90" s="92"/>
+      <c r="Q90" s="92"/>
+      <c r="R90" s="92"/>
+      <c r="S90" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="T90" s="48"/>
+      <c r="U90" s="48"/>
+      <c r="V90" s="48"/>
+      <c r="W90" s="48"/>
+      <c r="X90" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y90" s="22"/>
+      <c r="Z90" s="22"/>
+      <c r="AA90" s="22"/>
+      <c r="AB90" s="22"/>
+      <c r="AC90" s="19"/>
+      <c r="AD90" s="19"/>
+      <c r="AE90" s="19"/>
+      <c r="AF90" s="19"/>
+      <c r="AG90" s="19"/>
+    </row>
+    <row r="91">
+      <c r="B91" s="22"/>
+      <c r="C91" s="20"/>
+      <c r="D91" s="20"/>
+      <c r="E91" s="20"/>
+      <c r="F91" s="33"/>
+      <c r="G91" s="33"/>
+      <c r="H91" s="33"/>
+      <c r="I91" s="38"/>
+      <c r="J91" s="38"/>
+      <c r="K91" s="38"/>
+      <c r="L91" s="92"/>
+      <c r="M91" s="92"/>
+      <c r="N91" s="92"/>
+      <c r="O91" s="92"/>
+      <c r="P91" s="92"/>
+      <c r="Q91" s="92"/>
+      <c r="R91" s="92"/>
+      <c r="S91" s="48"/>
+      <c r="T91" s="48"/>
+      <c r="U91" s="48"/>
+      <c r="V91" s="48"/>
+      <c r="W91" s="48"/>
+      <c r="X91" s="24"/>
+      <c r="Y91" s="22"/>
+      <c r="Z91" s="22"/>
+      <c r="AA91" s="22"/>
+      <c r="AB91" s="22"/>
+      <c r="AC91" s="19"/>
+      <c r="AD91" s="19"/>
+      <c r="AE91" s="19"/>
+      <c r="AF91" s="19"/>
+      <c r="AG91" s="19"/>
+    </row>
+    <row r="92">
+      <c r="B92" s="22">
+        <v>44</v>
+      </c>
+      <c r="C92" s="20"/>
+      <c r="D92" s="20"/>
+      <c r="E92" s="20"/>
+      <c r="F92" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="G92" s="33"/>
+      <c r="H92" s="33"/>
+      <c r="I92" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="J92" s="24"/>
+      <c r="K92" s="24"/>
+      <c r="L92" s="92" t="s">
+        <v>130</v>
+      </c>
+      <c r="M92" s="92"/>
+      <c r="N92" s="92"/>
+      <c r="O92" s="92"/>
+      <c r="P92" s="92"/>
+      <c r="Q92" s="92"/>
+      <c r="R92" s="92"/>
+      <c r="S92" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="T92" s="38"/>
+      <c r="U92" s="38"/>
+      <c r="V92" s="38"/>
+      <c r="W92" s="38"/>
+      <c r="X92" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y92" s="22"/>
+      <c r="Z92" s="22"/>
+      <c r="AA92" s="22"/>
+      <c r="AB92" s="22"/>
+      <c r="AC92" s="19"/>
+      <c r="AD92" s="19"/>
+      <c r="AE92" s="19"/>
+      <c r="AF92" s="19"/>
+      <c r="AG92" s="19"/>
+    </row>
+    <row r="93">
+      <c r="B93" s="22"/>
+      <c r="C93" s="20"/>
+      <c r="D93" s="20"/>
+      <c r="E93" s="20"/>
+      <c r="F93" s="33"/>
+      <c r="G93" s="33"/>
+      <c r="H93" s="33"/>
+      <c r="I93" s="24"/>
+      <c r="J93" s="24"/>
+      <c r="K93" s="24"/>
+      <c r="L93" s="92"/>
+      <c r="M93" s="92"/>
+      <c r="N93" s="92"/>
+      <c r="O93" s="92"/>
+      <c r="P93" s="92"/>
+      <c r="Q93" s="92"/>
+      <c r="R93" s="92"/>
+      <c r="S93" s="38"/>
+      <c r="T93" s="38"/>
+      <c r="U93" s="38"/>
+      <c r="V93" s="38"/>
+      <c r="W93" s="38"/>
+      <c r="X93" s="24"/>
+      <c r="Y93" s="22"/>
+      <c r="Z93" s="22"/>
+      <c r="AA93" s="22"/>
+      <c r="AB93" s="22"/>
+      <c r="AC93" s="19"/>
+      <c r="AD93" s="19"/>
+      <c r="AE93" s="19"/>
+      <c r="AF93" s="19"/>
+      <c r="AG93" s="19"/>
+    </row>
+    <row r="94">
+      <c r="B94" s="22">
+        <v>45</v>
+      </c>
+      <c r="C94" s="20"/>
+      <c r="D94" s="20"/>
+      <c r="E94" s="20"/>
+      <c r="F94" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G94" s="33"/>
+      <c r="H94" s="33"/>
+      <c r="I94" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="J94" s="36"/>
+      <c r="K94" s="36"/>
+      <c r="L94" s="93" t="s">
+        <v>190</v>
+      </c>
+      <c r="M94" s="93"/>
+      <c r="N94" s="93"/>
+      <c r="O94" s="93"/>
+      <c r="P94" s="93"/>
+      <c r="Q94" s="93"/>
+      <c r="R94" s="93"/>
+      <c r="S94" s="54" t="s">
+        <v>140</v>
+      </c>
+      <c r="T94" s="53"/>
+      <c r="U94" s="53"/>
+      <c r="V94" s="53"/>
+      <c r="W94" s="53"/>
+      <c r="X94" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y94" s="22"/>
+      <c r="Z94" s="22"/>
+      <c r="AA94" s="22"/>
+      <c r="AB94" s="22"/>
+      <c r="AC94" s="19"/>
+      <c r="AD94" s="54" t="s">
+        <v>141</v>
+      </c>
+      <c r="AE94" s="54"/>
+      <c r="AF94" s="54"/>
+      <c r="AG94" s="54"/>
+    </row>
+    <row r="95">
+      <c r="B95" s="22"/>
+      <c r="C95" s="20"/>
+      <c r="D95" s="20"/>
+      <c r="E95" s="20"/>
+      <c r="F95" s="33"/>
+      <c r="G95" s="33"/>
+      <c r="H95" s="33"/>
+      <c r="I95" s="36"/>
+      <c r="J95" s="36"/>
+      <c r="K95" s="36"/>
+      <c r="L95" s="93"/>
+      <c r="M95" s="93"/>
+      <c r="N95" s="93"/>
+      <c r="O95" s="93"/>
+      <c r="P95" s="93"/>
+      <c r="Q95" s="93"/>
+      <c r="R95" s="93"/>
+      <c r="S95" s="53"/>
+      <c r="T95" s="53"/>
+      <c r="U95" s="53"/>
+      <c r="V95" s="53"/>
+      <c r="W95" s="53"/>
+      <c r="X95" s="36"/>
+      <c r="Y95" s="22"/>
+      <c r="Z95" s="22"/>
+      <c r="AA95" s="22"/>
+      <c r="AB95" s="22"/>
+      <c r="AC95" s="19"/>
+      <c r="AD95" s="54"/>
+      <c r="AE95" s="54"/>
+      <c r="AF95" s="54"/>
+      <c r="AG95" s="54"/>
+    </row>
+    <row r="96">
+      <c r="B96" s="22">
+        <v>46</v>
+      </c>
+      <c r="C96" s="20"/>
+      <c r="D96" s="20"/>
+      <c r="E96" s="20"/>
+      <c r="F96" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G96" s="33"/>
+      <c r="H96" s="33"/>
+      <c r="I96" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="J96" s="36"/>
+      <c r="K96" s="36"/>
+      <c r="L96" s="93" t="s">
+        <v>191</v>
+      </c>
+      <c r="M96" s="93"/>
+      <c r="N96" s="93"/>
+      <c r="O96" s="93"/>
+      <c r="P96" s="93"/>
+      <c r="Q96" s="93"/>
+      <c r="R96" s="93"/>
+      <c r="S96" s="54" t="s">
+        <v>140</v>
+      </c>
+      <c r="T96" s="53"/>
+      <c r="U96" s="53"/>
+      <c r="V96" s="53"/>
+      <c r="W96" s="53"/>
+      <c r="X96" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y96" s="22"/>
+      <c r="Z96" s="22"/>
+      <c r="AA96" s="22"/>
+      <c r="AB96" s="22"/>
+      <c r="AC96" s="19"/>
+      <c r="AD96" s="54" t="s">
+        <v>141</v>
+      </c>
+      <c r="AE96" s="54"/>
+      <c r="AF96" s="54"/>
+      <c r="AG96" s="54"/>
+    </row>
+    <row r="97">
+      <c r="B97" s="22"/>
+      <c r="C97" s="20"/>
+      <c r="D97" s="20"/>
+      <c r="E97" s="20"/>
+      <c r="F97" s="33"/>
+      <c r="G97" s="33"/>
+      <c r="H97" s="33"/>
+      <c r="I97" s="36"/>
+      <c r="J97" s="36"/>
+      <c r="K97" s="36"/>
+      <c r="L97" s="93"/>
+      <c r="M97" s="93"/>
+      <c r="N97" s="93"/>
+      <c r="O97" s="93"/>
+      <c r="P97" s="93"/>
+      <c r="Q97" s="93"/>
+      <c r="R97" s="93"/>
+      <c r="S97" s="53"/>
+      <c r="T97" s="53"/>
+      <c r="U97" s="53"/>
+      <c r="V97" s="53"/>
+      <c r="W97" s="53"/>
+      <c r="X97" s="36"/>
+      <c r="Y97" s="22"/>
+      <c r="Z97" s="22"/>
+      <c r="AA97" s="22"/>
+      <c r="AB97" s="22"/>
+      <c r="AC97" s="19"/>
+      <c r="AD97" s="54"/>
+      <c r="AE97" s="54"/>
+      <c r="AF97" s="54"/>
+      <c r="AG97" s="54"/>
+    </row>
+    <row r="98">
+      <c r="B98" s="22">
+        <v>47</v>
+      </c>
+      <c r="C98" s="20"/>
+      <c r="D98" s="20"/>
+      <c r="E98" s="20"/>
+      <c r="F98" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G98" s="33"/>
+      <c r="H98" s="33"/>
+      <c r="I98" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="J98" s="36"/>
+      <c r="K98" s="36"/>
+      <c r="L98" s="93" t="s">
+        <v>192</v>
+      </c>
+      <c r="M98" s="93"/>
+      <c r="N98" s="93"/>
+      <c r="O98" s="93"/>
+      <c r="P98" s="93"/>
+      <c r="Q98" s="93"/>
+      <c r="R98" s="93"/>
+      <c r="S98" s="54" t="s">
+        <v>140</v>
+      </c>
+      <c r="T98" s="53"/>
+      <c r="U98" s="53"/>
+      <c r="V98" s="53"/>
+      <c r="W98" s="53"/>
+      <c r="X98" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y98" s="22"/>
+      <c r="Z98" s="22"/>
+      <c r="AA98" s="22"/>
+      <c r="AB98" s="22"/>
+      <c r="AC98" s="19"/>
+      <c r="AD98" s="54" t="s">
+        <v>141</v>
+      </c>
+      <c r="AE98" s="54"/>
+      <c r="AF98" s="54"/>
+      <c r="AG98" s="54"/>
+    </row>
+    <row r="99">
+      <c r="B99" s="22"/>
+      <c r="C99" s="20"/>
+      <c r="D99" s="20"/>
+      <c r="E99" s="20"/>
+      <c r="F99" s="33"/>
+      <c r="G99" s="33"/>
+      <c r="H99" s="33"/>
+      <c r="I99" s="36"/>
+      <c r="J99" s="36"/>
+      <c r="K99" s="36"/>
+      <c r="L99" s="93"/>
+      <c r="M99" s="93"/>
+      <c r="N99" s="93"/>
+      <c r="O99" s="93"/>
+      <c r="P99" s="93"/>
+      <c r="Q99" s="93"/>
+      <c r="R99" s="93"/>
+      <c r="S99" s="53"/>
+      <c r="T99" s="53"/>
+      <c r="U99" s="53"/>
+      <c r="V99" s="53"/>
+      <c r="W99" s="53"/>
+      <c r="X99" s="36"/>
+      <c r="Y99" s="22"/>
+      <c r="Z99" s="22"/>
+      <c r="AA99" s="22"/>
+      <c r="AB99" s="22"/>
+      <c r="AC99" s="19"/>
+      <c r="AD99" s="54"/>
+      <c r="AE99" s="54"/>
+      <c r="AF99" s="54"/>
+      <c r="AG99" s="54"/>
+    </row>
+    <row r="100">
+      <c r="B100" s="22">
+        <v>48</v>
+      </c>
+      <c r="C100" s="20"/>
+      <c r="D100" s="20"/>
+      <c r="E100" s="20"/>
+      <c r="F100" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G100" s="33"/>
+      <c r="H100" s="33"/>
+      <c r="I100" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="J100" s="36"/>
+      <c r="K100" s="36"/>
+      <c r="L100" s="93" t="s">
+        <v>193</v>
+      </c>
+      <c r="M100" s="93"/>
+      <c r="N100" s="93"/>
+      <c r="O100" s="93"/>
+      <c r="P100" s="93"/>
+      <c r="Q100" s="93"/>
+      <c r="R100" s="93"/>
+      <c r="S100" s="54" t="s">
+        <v>140</v>
+      </c>
+      <c r="T100" s="53"/>
+      <c r="U100" s="53"/>
+      <c r="V100" s="53"/>
+      <c r="W100" s="53"/>
+      <c r="X100" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y100" s="22"/>
+      <c r="Z100" s="22"/>
+      <c r="AA100" s="22"/>
+      <c r="AB100" s="22"/>
+      <c r="AC100" s="19"/>
+      <c r="AD100" s="54" t="s">
+        <v>141</v>
+      </c>
+      <c r="AE100" s="54"/>
+      <c r="AF100" s="54"/>
+      <c r="AG100" s="54"/>
+    </row>
+    <row r="101">
+      <c r="B101" s="22"/>
+      <c r="C101" s="20"/>
+      <c r="D101" s="20"/>
+      <c r="E101" s="20"/>
+      <c r="F101" s="33"/>
+      <c r="G101" s="33"/>
+      <c r="H101" s="33"/>
+      <c r="I101" s="36"/>
+      <c r="J101" s="36"/>
+      <c r="K101" s="36"/>
+      <c r="L101" s="93"/>
+      <c r="M101" s="93"/>
+      <c r="N101" s="93"/>
+      <c r="O101" s="93"/>
+      <c r="P101" s="93"/>
+      <c r="Q101" s="93"/>
+      <c r="R101" s="93"/>
+      <c r="S101" s="53"/>
+      <c r="T101" s="53"/>
+      <c r="U101" s="53"/>
+      <c r="V101" s="53"/>
+      <c r="W101" s="53"/>
+      <c r="X101" s="36"/>
+      <c r="Y101" s="22"/>
+      <c r="Z101" s="22"/>
+      <c r="AA101" s="22"/>
+      <c r="AB101" s="22"/>
+      <c r="AC101" s="19"/>
+      <c r="AD101" s="54"/>
+      <c r="AE101" s="54"/>
+      <c r="AF101" s="54"/>
+      <c r="AG101" s="54"/>
+    </row>
+    <row r="102">
+      <c r="B102" s="22">
+        <v>49</v>
+      </c>
+      <c r="C102" s="20"/>
+      <c r="D102" s="20"/>
+      <c r="E102" s="20"/>
+      <c r="F102" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G102" s="33"/>
+      <c r="H102" s="33"/>
+      <c r="I102" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="J102" s="36"/>
+      <c r="K102" s="36"/>
+      <c r="L102" s="93" t="s">
+        <v>194</v>
+      </c>
+      <c r="M102" s="93"/>
+      <c r="N102" s="93"/>
+      <c r="O102" s="93"/>
+      <c r="P102" s="93"/>
+      <c r="Q102" s="93"/>
+      <c r="R102" s="93"/>
+      <c r="S102" s="54" t="s">
+        <v>140</v>
+      </c>
+      <c r="T102" s="53"/>
+      <c r="U102" s="53"/>
+      <c r="V102" s="53"/>
+      <c r="W102" s="53"/>
+      <c r="X102" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y102" s="22"/>
+      <c r="Z102" s="22"/>
+      <c r="AA102" s="22"/>
+      <c r="AB102" s="22"/>
+      <c r="AC102" s="19"/>
+      <c r="AD102" s="54" t="s">
+        <v>141</v>
+      </c>
+      <c r="AE102" s="54"/>
+      <c r="AF102" s="54"/>
+      <c r="AG102" s="54"/>
+    </row>
+    <row r="103">
+      <c r="B103" s="22"/>
+      <c r="C103" s="20"/>
+      <c r="D103" s="20"/>
+      <c r="E103" s="20"/>
+      <c r="F103" s="33"/>
+      <c r="G103" s="33"/>
+      <c r="H103" s="33"/>
+      <c r="I103" s="36"/>
+      <c r="J103" s="36"/>
+      <c r="K103" s="36"/>
+      <c r="L103" s="93"/>
+      <c r="M103" s="93"/>
+      <c r="N103" s="93"/>
+      <c r="O103" s="93"/>
+      <c r="P103" s="93"/>
+      <c r="Q103" s="93"/>
+      <c r="R103" s="93"/>
+      <c r="S103" s="53"/>
+      <c r="T103" s="53"/>
+      <c r="U103" s="53"/>
+      <c r="V103" s="53"/>
+      <c r="W103" s="53"/>
+      <c r="X103" s="36"/>
+      <c r="Y103" s="22"/>
+      <c r="Z103" s="22"/>
+      <c r="AA103" s="22"/>
+      <c r="AB103" s="22"/>
+      <c r="AC103" s="19"/>
+      <c r="AD103" s="54"/>
+      <c r="AE103" s="54"/>
+      <c r="AF103" s="54"/>
+      <c r="AG103" s="54"/>
+    </row>
+    <row r="104">
+      <c r="B104" s="22">
+        <v>50</v>
+      </c>
+      <c r="C104" s="20"/>
+      <c r="D104" s="20"/>
+      <c r="E104" s="20"/>
+      <c r="F104" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="G104" s="33"/>
+      <c r="H104" s="33"/>
+      <c r="I104" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="J104" s="24"/>
+      <c r="K104" s="24"/>
+      <c r="L104" s="92" t="s">
+        <v>131</v>
+      </c>
+      <c r="M104" s="92"/>
+      <c r="N104" s="92"/>
+      <c r="O104" s="92"/>
+      <c r="P104" s="92"/>
+      <c r="Q104" s="92"/>
+      <c r="R104" s="92"/>
+      <c r="S104" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="T104" s="22"/>
+      <c r="U104" s="22"/>
+      <c r="V104" s="22"/>
+      <c r="W104" s="22"/>
+      <c r="X104" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y104" s="22"/>
+      <c r="Z104" s="22"/>
+      <c r="AA104" s="22"/>
+      <c r="AB104" s="22"/>
+      <c r="AC104" s="19"/>
+      <c r="AD104" s="19"/>
+      <c r="AE104" s="19"/>
+      <c r="AF104" s="19"/>
+      <c r="AG104" s="19"/>
+    </row>
+    <row r="105">
+      <c r="B105" s="22"/>
+      <c r="C105" s="20"/>
+      <c r="D105" s="20"/>
+      <c r="E105" s="20"/>
+      <c r="F105" s="33"/>
+      <c r="G105" s="33"/>
+      <c r="H105" s="33"/>
+      <c r="I105" s="24"/>
+      <c r="J105" s="24"/>
+      <c r="K105" s="24"/>
+      <c r="L105" s="92"/>
+      <c r="M105" s="92"/>
+      <c r="N105" s="92"/>
+      <c r="O105" s="92"/>
+      <c r="P105" s="92"/>
+      <c r="Q105" s="92"/>
+      <c r="R105" s="92"/>
+      <c r="S105" s="22"/>
+      <c r="T105" s="22"/>
+      <c r="U105" s="22"/>
+      <c r="V105" s="22"/>
+      <c r="W105" s="22"/>
+      <c r="X105" s="24"/>
+      <c r="Y105" s="22"/>
+      <c r="Z105" s="22"/>
+      <c r="AA105" s="22"/>
+      <c r="AB105" s="22"/>
+      <c r="AC105" s="19"/>
+      <c r="AD105" s="19"/>
+      <c r="AE105" s="19"/>
+      <c r="AF105" s="19"/>
+      <c r="AG105" s="19"/>
+    </row>
+    <row r="106">
+      <c r="B106" s="22">
+        <v>51</v>
+      </c>
+      <c r="C106" s="20"/>
+      <c r="D106" s="20"/>
+      <c r="E106" s="20"/>
+      <c r="F106" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="G106" s="33"/>
+      <c r="H106" s="33"/>
+      <c r="I106" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="J106" s="36"/>
+      <c r="K106" s="36"/>
+      <c r="L106" s="93" t="s">
+        <v>195</v>
+      </c>
+      <c r="M106" s="93"/>
+      <c r="N106" s="93"/>
+      <c r="O106" s="93"/>
+      <c r="P106" s="93"/>
+      <c r="Q106" s="93"/>
+      <c r="R106" s="93"/>
+      <c r="S106" s="54" t="s">
+        <v>196</v>
+      </c>
+      <c r="T106" s="53"/>
+      <c r="U106" s="53"/>
+      <c r="V106" s="53"/>
+      <c r="W106" s="53"/>
+      <c r="X106" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y106" s="22"/>
+      <c r="Z106" s="22"/>
+      <c r="AA106" s="22"/>
+      <c r="AB106" s="22"/>
+      <c r="AC106" s="19"/>
+      <c r="AD106" s="54" t="s">
+        <v>141</v>
+      </c>
+      <c r="AE106" s="54"/>
+      <c r="AF106" s="54"/>
+      <c r="AG106" s="54"/>
+    </row>
+    <row r="107">
+      <c r="B107" s="22"/>
+      <c r="C107" s="20"/>
+      <c r="D107" s="20"/>
+      <c r="E107" s="20"/>
+      <c r="F107" s="33"/>
+      <c r="G107" s="33"/>
+      <c r="H107" s="33"/>
+      <c r="I107" s="36"/>
+      <c r="J107" s="36"/>
+      <c r="K107" s="36"/>
+      <c r="L107" s="93"/>
+      <c r="M107" s="93"/>
+      <c r="N107" s="93"/>
+      <c r="O107" s="93"/>
+      <c r="P107" s="93"/>
+      <c r="Q107" s="93"/>
+      <c r="R107" s="93"/>
+      <c r="S107" s="53"/>
+      <c r="T107" s="53"/>
+      <c r="U107" s="53"/>
+      <c r="V107" s="53"/>
+      <c r="W107" s="53"/>
+      <c r="X107" s="36"/>
+      <c r="Y107" s="22"/>
+      <c r="Z107" s="22"/>
+      <c r="AA107" s="22"/>
+      <c r="AB107" s="22"/>
+      <c r="AC107" s="19"/>
+      <c r="AD107" s="54"/>
+      <c r="AE107" s="54"/>
+      <c r="AF107" s="54"/>
+      <c r="AG107" s="54"/>
+    </row>
+    <row r="108">
+      <c r="B108" s="22">
+        <v>52</v>
+      </c>
+      <c r="C108" s="20"/>
+      <c r="D108" s="20"/>
+      <c r="E108" s="20"/>
+      <c r="F108" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="G108" s="33"/>
+      <c r="H108" s="33"/>
+      <c r="I108" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="J108" s="36"/>
+      <c r="K108" s="36"/>
+      <c r="L108" s="93" t="s">
+        <v>197</v>
+      </c>
+      <c r="M108" s="93"/>
+      <c r="N108" s="93"/>
+      <c r="O108" s="93"/>
+      <c r="P108" s="93"/>
+      <c r="Q108" s="93"/>
+      <c r="R108" s="93"/>
+      <c r="S108" s="54" t="s">
+        <v>196</v>
+      </c>
+      <c r="T108" s="53"/>
+      <c r="U108" s="53"/>
+      <c r="V108" s="53"/>
+      <c r="W108" s="53"/>
+      <c r="X108" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y108" s="22"/>
+      <c r="Z108" s="22"/>
+      <c r="AA108" s="22"/>
+      <c r="AB108" s="22"/>
+      <c r="AC108" s="19"/>
+      <c r="AD108" s="54" t="s">
+        <v>141</v>
+      </c>
+      <c r="AE108" s="54"/>
+      <c r="AF108" s="54"/>
+      <c r="AG108" s="54"/>
+    </row>
+    <row r="109">
+      <c r="B109" s="22"/>
+      <c r="C109" s="20"/>
+      <c r="D109" s="20"/>
+      <c r="E109" s="20"/>
+      <c r="F109" s="33"/>
+      <c r="G109" s="33"/>
+      <c r="H109" s="33"/>
+      <c r="I109" s="36"/>
+      <c r="J109" s="36"/>
+      <c r="K109" s="36"/>
+      <c r="L109" s="93"/>
+      <c r="M109" s="93"/>
+      <c r="N109" s="93"/>
+      <c r="O109" s="93"/>
+      <c r="P109" s="93"/>
+      <c r="Q109" s="93"/>
+      <c r="R109" s="93"/>
+      <c r="S109" s="53"/>
+      <c r="T109" s="53"/>
+      <c r="U109" s="53"/>
+      <c r="V109" s="53"/>
+      <c r="W109" s="53"/>
+      <c r="X109" s="36"/>
+      <c r="Y109" s="22"/>
+      <c r="Z109" s="22"/>
+      <c r="AA109" s="22"/>
+      <c r="AB109" s="22"/>
+      <c r="AC109" s="19"/>
+      <c r="AD109" s="54"/>
+      <c r="AE109" s="54"/>
+      <c r="AF109" s="54"/>
+      <c r="AG109" s="54"/>
+    </row>
+    <row r="110">
+      <c r="B110" s="22">
+        <v>53</v>
+      </c>
+      <c r="C110" s="20"/>
+      <c r="D110" s="20"/>
+      <c r="E110" s="20"/>
+      <c r="F110" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="G110" s="33"/>
+      <c r="H110" s="33"/>
+      <c r="I110" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="J110" s="36"/>
+      <c r="K110" s="36"/>
+      <c r="L110" s="93" t="s">
+        <v>198</v>
+      </c>
+      <c r="M110" s="93"/>
+      <c r="N110" s="93"/>
+      <c r="O110" s="93"/>
+      <c r="P110" s="93"/>
+      <c r="Q110" s="93"/>
+      <c r="R110" s="93"/>
+      <c r="S110" s="54" t="s">
+        <v>196</v>
+      </c>
+      <c r="T110" s="53"/>
+      <c r="U110" s="53"/>
+      <c r="V110" s="53"/>
+      <c r="W110" s="53"/>
+      <c r="X110" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y110" s="22"/>
+      <c r="Z110" s="22"/>
+      <c r="AA110" s="22"/>
+      <c r="AB110" s="22"/>
+      <c r="AC110" s="19"/>
+      <c r="AD110" s="54" t="s">
+        <v>141</v>
+      </c>
+      <c r="AE110" s="54"/>
+      <c r="AF110" s="54"/>
+      <c r="AG110" s="54"/>
+    </row>
+    <row r="111">
+      <c r="B111" s="22"/>
+      <c r="C111" s="20"/>
+      <c r="D111" s="20"/>
+      <c r="E111" s="20"/>
+      <c r="F111" s="33"/>
+      <c r="G111" s="33"/>
+      <c r="H111" s="33"/>
+      <c r="I111" s="36"/>
+      <c r="J111" s="36"/>
+      <c r="K111" s="36"/>
+      <c r="L111" s="93"/>
+      <c r="M111" s="93"/>
+      <c r="N111" s="93"/>
+      <c r="O111" s="93"/>
+      <c r="P111" s="93"/>
+      <c r="Q111" s="93"/>
+      <c r="R111" s="93"/>
+      <c r="S111" s="53"/>
+      <c r="T111" s="53"/>
+      <c r="U111" s="53"/>
+      <c r="V111" s="53"/>
+      <c r="W111" s="53"/>
+      <c r="X111" s="36"/>
+      <c r="Y111" s="22"/>
+      <c r="Z111" s="22"/>
+      <c r="AA111" s="22"/>
+      <c r="AB111" s="22"/>
+      <c r="AC111" s="19"/>
+      <c r="AD111" s="54"/>
+      <c r="AE111" s="54"/>
+      <c r="AF111" s="54"/>
+      <c r="AG111" s="54"/>
+    </row>
+    <row r="112">
+      <c r="B112" s="22">
+        <v>54</v>
+      </c>
+      <c r="C112" s="20"/>
+      <c r="D112" s="20"/>
+      <c r="E112" s="20"/>
+      <c r="F112" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="G112" s="33"/>
+      <c r="H112" s="33"/>
+      <c r="I112" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="J112" s="36"/>
+      <c r="K112" s="36"/>
+      <c r="L112" s="93" t="s">
+        <v>199</v>
+      </c>
+      <c r="M112" s="93"/>
+      <c r="N112" s="93"/>
+      <c r="O112" s="93"/>
+      <c r="P112" s="93"/>
+      <c r="Q112" s="93"/>
+      <c r="R112" s="93"/>
+      <c r="S112" s="54" t="s">
+        <v>196</v>
+      </c>
+      <c r="T112" s="53"/>
+      <c r="U112" s="53"/>
+      <c r="V112" s="53"/>
+      <c r="W112" s="53"/>
+      <c r="X112" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y112" s="22"/>
+      <c r="Z112" s="22"/>
+      <c r="AA112" s="22"/>
+      <c r="AB112" s="22"/>
+      <c r="AC112" s="19"/>
+      <c r="AD112" s="54" t="s">
+        <v>141</v>
+      </c>
+      <c r="AE112" s="54"/>
+      <c r="AF112" s="54"/>
+      <c r="AG112" s="54"/>
+    </row>
+    <row r="113">
+      <c r="B113" s="22"/>
+      <c r="C113" s="20"/>
+      <c r="D113" s="20"/>
+      <c r="E113" s="20"/>
+      <c r="F113" s="33"/>
+      <c r="G113" s="33"/>
+      <c r="H113" s="33"/>
+      <c r="I113" s="36"/>
+      <c r="J113" s="36"/>
+      <c r="K113" s="36"/>
+      <c r="L113" s="93"/>
+      <c r="M113" s="93"/>
+      <c r="N113" s="93"/>
+      <c r="O113" s="93"/>
+      <c r="P113" s="93"/>
+      <c r="Q113" s="93"/>
+      <c r="R113" s="93"/>
+      <c r="S113" s="53"/>
+      <c r="T113" s="53"/>
+      <c r="U113" s="53"/>
+      <c r="V113" s="53"/>
+      <c r="W113" s="53"/>
+      <c r="X113" s="36"/>
+      <c r="Y113" s="22"/>
+      <c r="Z113" s="22"/>
+      <c r="AA113" s="22"/>
+      <c r="AB113" s="22"/>
+      <c r="AC113" s="19"/>
+      <c r="AD113" s="54"/>
+      <c r="AE113" s="54"/>
+      <c r="AF113" s="54"/>
+      <c r="AG113" s="54"/>
+    </row>
+    <row r="114">
+      <c r="B114" s="22">
+        <v>55</v>
+      </c>
+      <c r="C114" s="20"/>
+      <c r="D114" s="20"/>
+      <c r="E114" s="20"/>
+      <c r="F114" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="G114" s="33"/>
+      <c r="H114" s="33"/>
+      <c r="I114" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="J114" s="36"/>
+      <c r="K114" s="36"/>
+      <c r="L114" s="93" t="s">
+        <v>200</v>
+      </c>
+      <c r="M114" s="93"/>
+      <c r="N114" s="93"/>
+      <c r="O114" s="93"/>
+      <c r="P114" s="93"/>
+      <c r="Q114" s="93"/>
+      <c r="R114" s="93"/>
+      <c r="S114" s="54" t="s">
+        <v>196</v>
+      </c>
+      <c r="T114" s="53"/>
+      <c r="U114" s="53"/>
+      <c r="V114" s="53"/>
+      <c r="W114" s="53"/>
+      <c r="X114" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y114" s="22"/>
+      <c r="Z114" s="22"/>
+      <c r="AA114" s="22"/>
+      <c r="AB114" s="22"/>
+      <c r="AC114" s="19"/>
+      <c r="AD114" s="54" t="s">
+        <v>141</v>
+      </c>
+      <c r="AE114" s="54"/>
+      <c r="AF114" s="54"/>
+      <c r="AG114" s="54"/>
+    </row>
+    <row r="115">
+      <c r="B115" s="22"/>
+      <c r="C115" s="20"/>
+      <c r="D115" s="20"/>
+      <c r="E115" s="20"/>
+      <c r="F115" s="33"/>
+      <c r="G115" s="33"/>
+      <c r="H115" s="33"/>
+      <c r="I115" s="36"/>
+      <c r="J115" s="36"/>
+      <c r="K115" s="36"/>
+      <c r="L115" s="93"/>
+      <c r="M115" s="93"/>
+      <c r="N115" s="93"/>
+      <c r="O115" s="93"/>
+      <c r="P115" s="93"/>
+      <c r="Q115" s="93"/>
+      <c r="R115" s="93"/>
+      <c r="S115" s="53"/>
+      <c r="T115" s="53"/>
+      <c r="U115" s="53"/>
+      <c r="V115" s="53"/>
+      <c r="W115" s="53"/>
+      <c r="X115" s="36"/>
+      <c r="Y115" s="22"/>
+      <c r="Z115" s="22"/>
+      <c r="AA115" s="22"/>
+      <c r="AB115" s="22"/>
+      <c r="AC115" s="19"/>
+      <c r="AD115" s="54"/>
+      <c r="AE115" s="54"/>
+      <c r="AF115" s="54"/>
+      <c r="AG115" s="54"/>
+    </row>
+    <row r="116">
+      <c r="B116" s="22">
+        <v>56</v>
+      </c>
+      <c r="C116" s="20"/>
+      <c r="D116" s="20"/>
+      <c r="E116" s="20"/>
+      <c r="F116" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="G116" s="33"/>
+      <c r="H116" s="33"/>
+      <c r="I116" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="J116" s="38"/>
+      <c r="K116" s="38"/>
+      <c r="L116" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="M116" s="22"/>
+      <c r="N116" s="22"/>
+      <c r="O116" s="22"/>
+      <c r="P116" s="22"/>
+      <c r="Q116" s="22"/>
+      <c r="R116" s="22"/>
+      <c r="S116" s="51" t="s">
+        <v>149</v>
+      </c>
+      <c r="T116" s="48"/>
+      <c r="U116" s="48"/>
+      <c r="V116" s="48"/>
+      <c r="W116" s="48"/>
+      <c r="X116" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y116" s="22"/>
+      <c r="Z116" s="22"/>
+      <c r="AA116" s="22"/>
+      <c r="AB116" s="22"/>
+      <c r="AC116" s="19"/>
+      <c r="AD116" s="19"/>
+      <c r="AE116" s="19"/>
+      <c r="AF116" s="19"/>
+      <c r="AG116" s="19"/>
+    </row>
+    <row r="117">
+      <c r="B117" s="22"/>
+      <c r="C117" s="20"/>
+      <c r="D117" s="20"/>
+      <c r="E117" s="20"/>
+      <c r="F117" s="33"/>
+      <c r="G117" s="33"/>
+      <c r="H117" s="33"/>
+      <c r="I117" s="38"/>
+      <c r="J117" s="38"/>
+      <c r="K117" s="38"/>
+      <c r="L117" s="22"/>
+      <c r="M117" s="22"/>
+      <c r="N117" s="22"/>
+      <c r="O117" s="22"/>
+      <c r="P117" s="22"/>
+      <c r="Q117" s="22"/>
+      <c r="R117" s="22"/>
+      <c r="S117" s="48"/>
+      <c r="T117" s="48"/>
+      <c r="U117" s="48"/>
+      <c r="V117" s="48"/>
+      <c r="W117" s="48"/>
+      <c r="X117" s="24"/>
+      <c r="Y117" s="22"/>
+      <c r="Z117" s="22"/>
+      <c r="AA117" s="22"/>
+      <c r="AB117" s="22"/>
+      <c r="AC117" s="19"/>
+      <c r="AD117" s="19"/>
+      <c r="AE117" s="19"/>
+      <c r="AF117" s="19"/>
+      <c r="AG117" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="C3:AB4"/>
+  <mergeCells count="569">
+    <mergeCell ref="B3:AG4"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="F5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:P5"/>
-    <mergeCell ref="Q5:T5"/>
-    <mergeCell ref="V5:X5"/>
-    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L5:R5"/>
+    <mergeCell ref="S5:W5"/>
+    <mergeCell ref="Y5:AA5"/>
+    <mergeCell ref="AD5:AG5"/>
     <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:E31"/>
+    <mergeCell ref="C6:E117"/>
     <mergeCell ref="F6:H7"/>
-    <mergeCell ref="I6:J7"/>
+    <mergeCell ref="I6:K7"/>
+    <mergeCell ref="L6:R7"/>
+    <mergeCell ref="S6:W7"/>
+    <mergeCell ref="X6:X7"/>
+    <mergeCell ref="Y6:AA7"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="AC6:AC7"/>
+    <mergeCell ref="AD6:AG7"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="F8:H9"/>
+    <mergeCell ref="I8:K9"/>
+    <mergeCell ref="L8:R9"/>
+    <mergeCell ref="S8:W9"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="Y8:AA9"/>
+    <mergeCell ref="AB8:AB9"/>
+    <mergeCell ref="AC8:AC9"/>
+    <mergeCell ref="AD8:AG9"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="F10:H11"/>
+    <mergeCell ref="I10:K11"/>
+    <mergeCell ref="L10:R11"/>
+    <mergeCell ref="S10:W11"/>
+    <mergeCell ref="X10:X11"/>
+    <mergeCell ref="Y10:AA11"/>
+    <mergeCell ref="AB10:AB11"/>
+    <mergeCell ref="AC10:AC11"/>
+    <mergeCell ref="AD10:AG11"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="F12:H13"/>
+    <mergeCell ref="I12:K13"/>
+    <mergeCell ref="L12:R13"/>
+    <mergeCell ref="S12:W13"/>
+    <mergeCell ref="X12:X13"/>
+    <mergeCell ref="Y12:AA13"/>
+    <mergeCell ref="AB12:AB13"/>
+    <mergeCell ref="AC12:AC13"/>
+    <mergeCell ref="AD12:AG13"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="F14:H15"/>
+    <mergeCell ref="I14:K15"/>
+    <mergeCell ref="L14:R15"/>
+    <mergeCell ref="S14:W15"/>
+    <mergeCell ref="X14:X15"/>
+    <mergeCell ref="Y14:AA15"/>
+    <mergeCell ref="AB14:AB15"/>
+    <mergeCell ref="AC14:AC15"/>
+    <mergeCell ref="AD14:AG15"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="F16:H17"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="L16:R17"/>
+    <mergeCell ref="S16:W17"/>
+    <mergeCell ref="X16:X17"/>
+    <mergeCell ref="Y16:AA17"/>
+    <mergeCell ref="AB16:AB17"/>
+    <mergeCell ref="AC16:AC17"/>
+    <mergeCell ref="AD16:AG17"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="F18:H19"/>
+    <mergeCell ref="I18:K19"/>
+    <mergeCell ref="L18:R19"/>
+    <mergeCell ref="S18:W19"/>
+    <mergeCell ref="X18:X19"/>
+    <mergeCell ref="Y18:AA19"/>
+    <mergeCell ref="AB18:AB19"/>
+    <mergeCell ref="AC18:AC19"/>
+    <mergeCell ref="AD18:AG19"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="F20:H21"/>
+    <mergeCell ref="I20:K21"/>
+    <mergeCell ref="L20:R21"/>
+    <mergeCell ref="S20:W21"/>
+    <mergeCell ref="X20:X21"/>
+    <mergeCell ref="Y20:AA21"/>
+    <mergeCell ref="AB20:AB21"/>
+    <mergeCell ref="AC20:AC21"/>
+    <mergeCell ref="AD20:AG21"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="F22:H23"/>
+    <mergeCell ref="I22:K23"/>
+    <mergeCell ref="L22:R23"/>
+    <mergeCell ref="S22:W23"/>
+    <mergeCell ref="X22:X23"/>
+    <mergeCell ref="Y22:AA23"/>
+    <mergeCell ref="AB22:AB23"/>
+    <mergeCell ref="AC22:AC23"/>
+    <mergeCell ref="AD22:AG23"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="F24:H25"/>
+    <mergeCell ref="I24:K25"/>
+    <mergeCell ref="L24:R25"/>
+    <mergeCell ref="S24:W25"/>
+    <mergeCell ref="X24:X25"/>
+    <mergeCell ref="Y24:AA25"/>
+    <mergeCell ref="AB24:AB25"/>
+    <mergeCell ref="AC24:AC25"/>
+    <mergeCell ref="AD24:AG25"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="F26:H27"/>
+    <mergeCell ref="I26:K27"/>
+    <mergeCell ref="L26:R27"/>
+    <mergeCell ref="S26:W27"/>
+    <mergeCell ref="X26:X27"/>
+    <mergeCell ref="Y26:AA27"/>
+    <mergeCell ref="AB26:AB27"/>
+    <mergeCell ref="AC26:AC27"/>
+    <mergeCell ref="AD26:AG27"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="F28:H29"/>
+    <mergeCell ref="I28:K29"/>
+    <mergeCell ref="L28:R29"/>
+    <mergeCell ref="S28:W29"/>
+    <mergeCell ref="X28:X29"/>
+    <mergeCell ref="Y28:AA29"/>
+    <mergeCell ref="AB28:AB29"/>
+    <mergeCell ref="AC28:AC29"/>
+    <mergeCell ref="AD28:AG29"/>
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="F30:H31"/>
+    <mergeCell ref="I30:K31"/>
+    <mergeCell ref="L30:R31"/>
+    <mergeCell ref="S30:W31"/>
+    <mergeCell ref="X30:X31"/>
+    <mergeCell ref="Y30:AA31"/>
+    <mergeCell ref="AB30:AB31"/>
+    <mergeCell ref="AC30:AC31"/>
+    <mergeCell ref="AD30:AG31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="F32:H33"/>
+    <mergeCell ref="I32:K33"/>
+    <mergeCell ref="L32:R33"/>
+    <mergeCell ref="S32:W33"/>
+    <mergeCell ref="X32:X33"/>
+    <mergeCell ref="Y32:AA33"/>
+    <mergeCell ref="AB32:AB33"/>
+    <mergeCell ref="AC32:AC33"/>
+    <mergeCell ref="AD32:AG33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="F34:H35"/>
+    <mergeCell ref="I34:K35"/>
+    <mergeCell ref="L34:R35"/>
+    <mergeCell ref="S34:W35"/>
+    <mergeCell ref="X34:X35"/>
+    <mergeCell ref="Y34:AA35"/>
+    <mergeCell ref="AB34:AB35"/>
+    <mergeCell ref="AC34:AC35"/>
+    <mergeCell ref="AD34:AG35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="F36:H37"/>
+    <mergeCell ref="I36:K37"/>
+    <mergeCell ref="L36:R37"/>
+    <mergeCell ref="S36:W37"/>
+    <mergeCell ref="X36:X37"/>
+    <mergeCell ref="Y36:AA37"/>
+    <mergeCell ref="AB36:AB37"/>
+    <mergeCell ref="AC36:AC37"/>
+    <mergeCell ref="AD36:AG37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="F38:H39"/>
+    <mergeCell ref="I38:K39"/>
+    <mergeCell ref="L38:R39"/>
+    <mergeCell ref="S38:W39"/>
+    <mergeCell ref="X38:X39"/>
+    <mergeCell ref="Y38:AA39"/>
+    <mergeCell ref="AB38:AB39"/>
+    <mergeCell ref="AC38:AC39"/>
+    <mergeCell ref="AD38:AG39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="F40:H41"/>
+    <mergeCell ref="I40:K41"/>
+    <mergeCell ref="L40:R41"/>
+    <mergeCell ref="S40:W41"/>
+    <mergeCell ref="X40:X41"/>
+    <mergeCell ref="Y40:AA41"/>
+    <mergeCell ref="AB40:AB41"/>
+    <mergeCell ref="AC40:AC41"/>
+    <mergeCell ref="AD40:AG41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="F42:H43"/>
+    <mergeCell ref="I42:K43"/>
+    <mergeCell ref="L42:R43"/>
+    <mergeCell ref="S42:W43"/>
+    <mergeCell ref="X42:X43"/>
+    <mergeCell ref="Y42:AA43"/>
+    <mergeCell ref="AB42:AB43"/>
+    <mergeCell ref="AC42:AC43"/>
+    <mergeCell ref="AD42:AG43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="F44:H45"/>
+    <mergeCell ref="I44:K45"/>
+    <mergeCell ref="L44:R45"/>
+    <mergeCell ref="S44:W45"/>
+    <mergeCell ref="X44:X45"/>
+    <mergeCell ref="Y44:AA45"/>
+    <mergeCell ref="AB44:AB45"/>
+    <mergeCell ref="AC44:AC45"/>
+    <mergeCell ref="AD44:AG45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="F46:H47"/>
+    <mergeCell ref="I46:K47"/>
+    <mergeCell ref="L46:R47"/>
+    <mergeCell ref="S46:W47"/>
+    <mergeCell ref="X46:X47"/>
+    <mergeCell ref="Y46:AA47"/>
+    <mergeCell ref="AB46:AB47"/>
+    <mergeCell ref="AC46:AC47"/>
+    <mergeCell ref="AD46:AG47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="F48:H49"/>
+    <mergeCell ref="I48:K49"/>
+    <mergeCell ref="L48:R49"/>
+    <mergeCell ref="S48:W49"/>
+    <mergeCell ref="X48:X49"/>
+    <mergeCell ref="Y48:AA49"/>
+    <mergeCell ref="AB48:AB49"/>
+    <mergeCell ref="AC48:AC49"/>
+    <mergeCell ref="AD48:AG49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="F50:H51"/>
+    <mergeCell ref="I50:K51"/>
+    <mergeCell ref="L50:R51"/>
+    <mergeCell ref="S50:W51"/>
+    <mergeCell ref="X50:X51"/>
+    <mergeCell ref="Y50:AA51"/>
+    <mergeCell ref="AB50:AB51"/>
+    <mergeCell ref="AC50:AC51"/>
+    <mergeCell ref="AD50:AG51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="F52:H53"/>
+    <mergeCell ref="I52:K53"/>
+    <mergeCell ref="L52:R53"/>
+    <mergeCell ref="S52:W53"/>
+    <mergeCell ref="X52:X53"/>
+    <mergeCell ref="Y52:AA53"/>
+    <mergeCell ref="AB52:AB53"/>
+    <mergeCell ref="AC52:AC53"/>
+    <mergeCell ref="AD52:AG53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="F54:H55"/>
+    <mergeCell ref="I54:K55"/>
+    <mergeCell ref="L54:R55"/>
+    <mergeCell ref="S54:W55"/>
+    <mergeCell ref="X54:X55"/>
+    <mergeCell ref="Y54:AA55"/>
+    <mergeCell ref="AB54:AB55"/>
+    <mergeCell ref="AC54:AC55"/>
+    <mergeCell ref="AD54:AG55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="F56:H57"/>
+    <mergeCell ref="I56:K57"/>
+    <mergeCell ref="L56:R57"/>
+    <mergeCell ref="S56:W57"/>
+    <mergeCell ref="X56:X57"/>
+    <mergeCell ref="Y56:AA57"/>
+    <mergeCell ref="AB56:AB57"/>
+    <mergeCell ref="AC56:AC57"/>
+    <mergeCell ref="AD56:AG57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="F58:H59"/>
+    <mergeCell ref="I58:K59"/>
+    <mergeCell ref="L58:R59"/>
+    <mergeCell ref="S58:W59"/>
+    <mergeCell ref="X58:X59"/>
+    <mergeCell ref="Y58:AA59"/>
+    <mergeCell ref="AB58:AB59"/>
+    <mergeCell ref="AC58:AC59"/>
+    <mergeCell ref="AD58:AG59"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="F60:H61"/>
+    <mergeCell ref="I60:K61"/>
+    <mergeCell ref="L60:R61"/>
+    <mergeCell ref="S60:W61"/>
+    <mergeCell ref="X60:X61"/>
+    <mergeCell ref="Y60:AA61"/>
+    <mergeCell ref="AB60:AB61"/>
+    <mergeCell ref="AC60:AC61"/>
+    <mergeCell ref="AD60:AG61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="F62:H63"/>
+    <mergeCell ref="I62:K63"/>
+    <mergeCell ref="L62:R63"/>
+    <mergeCell ref="S62:W63"/>
+    <mergeCell ref="X62:X63"/>
+    <mergeCell ref="Y62:AA63"/>
+    <mergeCell ref="AB62:AB63"/>
+    <mergeCell ref="AC62:AC63"/>
+    <mergeCell ref="AD62:AG63"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="F64:H65"/>
+    <mergeCell ref="I64:K65"/>
+    <mergeCell ref="L64:R65"/>
+    <mergeCell ref="S64:W65"/>
+    <mergeCell ref="X64:X65"/>
+    <mergeCell ref="Y64:AA65"/>
+    <mergeCell ref="AB64:AB65"/>
+    <mergeCell ref="AC64:AC65"/>
+    <mergeCell ref="AD64:AG65"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="F66:H67"/>
+    <mergeCell ref="I66:K67"/>
+    <mergeCell ref="L66:R67"/>
+    <mergeCell ref="S66:W67"/>
+    <mergeCell ref="X66:X67"/>
+    <mergeCell ref="Y66:AA67"/>
+    <mergeCell ref="AB66:AB67"/>
+    <mergeCell ref="AC66:AC67"/>
+    <mergeCell ref="AD66:AG67"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="F68:H69"/>
+    <mergeCell ref="I68:K69"/>
+    <mergeCell ref="L68:R69"/>
+    <mergeCell ref="S68:W69"/>
+    <mergeCell ref="X68:X69"/>
+    <mergeCell ref="Y68:AA69"/>
+    <mergeCell ref="AB68:AB69"/>
+    <mergeCell ref="AC68:AC69"/>
+    <mergeCell ref="AD68:AG69"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="F70:H71"/>
+    <mergeCell ref="I70:K71"/>
+    <mergeCell ref="L70:R71"/>
+    <mergeCell ref="S70:W71"/>
+    <mergeCell ref="X70:X71"/>
+    <mergeCell ref="Y70:AA71"/>
+    <mergeCell ref="AB70:AB71"/>
+    <mergeCell ref="AC70:AC71"/>
+    <mergeCell ref="AD70:AG71"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="F72:H73"/>
+    <mergeCell ref="I72:K73"/>
+    <mergeCell ref="L72:R73"/>
+    <mergeCell ref="S72:W73"/>
+    <mergeCell ref="X72:X73"/>
+    <mergeCell ref="Y72:AA73"/>
+    <mergeCell ref="AB72:AB73"/>
+    <mergeCell ref="AC72:AC73"/>
+    <mergeCell ref="AD72:AG73"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="F74:H75"/>
+    <mergeCell ref="I74:K75"/>
+    <mergeCell ref="L74:R75"/>
+    <mergeCell ref="S74:W75"/>
+    <mergeCell ref="X74:X75"/>
+    <mergeCell ref="Y74:AA75"/>
+    <mergeCell ref="AB74:AB75"/>
+    <mergeCell ref="AC74:AC75"/>
+    <mergeCell ref="AD74:AG75"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="F76:H77"/>
+    <mergeCell ref="I76:K77"/>
+    <mergeCell ref="L76:R77"/>
+    <mergeCell ref="S76:W77"/>
+    <mergeCell ref="X76:X77"/>
+    <mergeCell ref="Y76:AA77"/>
+    <mergeCell ref="AB76:AB77"/>
+    <mergeCell ref="AC76:AC77"/>
+    <mergeCell ref="AD76:AG77"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="F78:H79"/>
+    <mergeCell ref="I78:K79"/>
+    <mergeCell ref="L78:R79"/>
+    <mergeCell ref="S78:W79"/>
+    <mergeCell ref="X78:X79"/>
+    <mergeCell ref="Y78:AA79"/>
+    <mergeCell ref="AB78:AB79"/>
+    <mergeCell ref="AC78:AC79"/>
+    <mergeCell ref="AD78:AG79"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="F80:H81"/>
+    <mergeCell ref="I80:K81"/>
+    <mergeCell ref="L80:R81"/>
+    <mergeCell ref="S80:W81"/>
+    <mergeCell ref="X80:X81"/>
+    <mergeCell ref="Y80:AA81"/>
+    <mergeCell ref="AB80:AB81"/>
+    <mergeCell ref="AC80:AC81"/>
+    <mergeCell ref="AD80:AG81"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="F82:H83"/>
+    <mergeCell ref="I82:K83"/>
+    <mergeCell ref="L82:R83"/>
+    <mergeCell ref="S82:W83"/>
+    <mergeCell ref="X82:X83"/>
+    <mergeCell ref="Y82:AA83"/>
+    <mergeCell ref="AB82:AB83"/>
+    <mergeCell ref="AC82:AC83"/>
+    <mergeCell ref="AD82:AG83"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="F84:H85"/>
+    <mergeCell ref="I84:K85"/>
+    <mergeCell ref="L84:R85"/>
+    <mergeCell ref="S84:W85"/>
+    <mergeCell ref="X84:X85"/>
+    <mergeCell ref="Y84:AA85"/>
+    <mergeCell ref="AB84:AB85"/>
+    <mergeCell ref="AC84:AC85"/>
+    <mergeCell ref="AD84:AG85"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="F86:H87"/>
+    <mergeCell ref="I86:K87"/>
+    <mergeCell ref="L86:R87"/>
+    <mergeCell ref="S86:W87"/>
+    <mergeCell ref="X86:X87"/>
+    <mergeCell ref="Y86:AA87"/>
+    <mergeCell ref="AB86:AB87"/>
+    <mergeCell ref="AC86:AC87"/>
+    <mergeCell ref="AD86:AG87"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="F88:H89"/>
+    <mergeCell ref="I88:K89"/>
+    <mergeCell ref="L88:R89"/>
+    <mergeCell ref="S88:W89"/>
+    <mergeCell ref="X88:X89"/>
+    <mergeCell ref="Y88:AA89"/>
+    <mergeCell ref="AB88:AB89"/>
+    <mergeCell ref="AC88:AC89"/>
+    <mergeCell ref="AD88:AG89"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="F90:H91"/>
+    <mergeCell ref="I90:K91"/>
+    <mergeCell ref="L90:R91"/>
+    <mergeCell ref="S90:W91"/>
+    <mergeCell ref="X90:X91"/>
+    <mergeCell ref="Y90:AA91"/>
+    <mergeCell ref="AB90:AB91"/>
+    <mergeCell ref="AC90:AC91"/>
+    <mergeCell ref="AD90:AG91"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="F92:H93"/>
+    <mergeCell ref="I92:K93"/>
+    <mergeCell ref="L92:R93"/>
+    <mergeCell ref="S92:W93"/>
+    <mergeCell ref="X92:X93"/>
+    <mergeCell ref="Y92:AA93"/>
+    <mergeCell ref="AB92:AB93"/>
+    <mergeCell ref="AC92:AC93"/>
+    <mergeCell ref="AD92:AG93"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="F94:H95"/>
+    <mergeCell ref="I94:K95"/>
+    <mergeCell ref="L94:R95"/>
+    <mergeCell ref="S94:W95"/>
+    <mergeCell ref="X94:X95"/>
+    <mergeCell ref="Y94:AA95"/>
+    <mergeCell ref="AB94:AB95"/>
+    <mergeCell ref="AC94:AC95"/>
+    <mergeCell ref="AD94:AG95"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="F96:H97"/>
+    <mergeCell ref="I96:K97"/>
+    <mergeCell ref="L96:R97"/>
+    <mergeCell ref="S96:W97"/>
+    <mergeCell ref="X96:X97"/>
+    <mergeCell ref="Y96:AA97"/>
+    <mergeCell ref="AB96:AB97"/>
+    <mergeCell ref="AC96:AC97"/>
+    <mergeCell ref="AD96:AG97"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="F98:H99"/>
+    <mergeCell ref="I98:K99"/>
+    <mergeCell ref="L98:R99"/>
+    <mergeCell ref="S98:W99"/>
+    <mergeCell ref="X98:X99"/>
+    <mergeCell ref="Y98:AA99"/>
+    <mergeCell ref="AB98:AB99"/>
+    <mergeCell ref="AC98:AC99"/>
+    <mergeCell ref="AD98:AG99"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="F100:H101"/>
+    <mergeCell ref="I100:K101"/>
+    <mergeCell ref="L100:R101"/>
+    <mergeCell ref="S100:W101"/>
+    <mergeCell ref="X100:X101"/>
+    <mergeCell ref="Y100:AA101"/>
+    <mergeCell ref="AB100:AB101"/>
+    <mergeCell ref="AC100:AC101"/>
+    <mergeCell ref="AD100:AG101"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="F102:H103"/>
+    <mergeCell ref="I102:K103"/>
+    <mergeCell ref="L102:R103"/>
+    <mergeCell ref="S102:W103"/>
+    <mergeCell ref="X102:X103"/>
+    <mergeCell ref="Y102:AA103"/>
+    <mergeCell ref="AB102:AB103"/>
+    <mergeCell ref="AC102:AC103"/>
+    <mergeCell ref="AD102:AG103"/>
+    <mergeCell ref="B104:B105"/>
+    <mergeCell ref="F104:H105"/>
+    <mergeCell ref="I104:K105"/>
+    <mergeCell ref="L104:R105"/>
+    <mergeCell ref="S104:W105"/>
+    <mergeCell ref="X104:X105"/>
+    <mergeCell ref="Y104:AA105"/>
+    <mergeCell ref="AB104:AB105"/>
+    <mergeCell ref="AC104:AC105"/>
+    <mergeCell ref="AD104:AG105"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="F106:H107"/>
+    <mergeCell ref="I106:K107"/>
+    <mergeCell ref="L106:R107"/>
+    <mergeCell ref="S106:W107"/>
+    <mergeCell ref="X106:X107"/>
+    <mergeCell ref="Y106:AA107"/>
+    <mergeCell ref="AB106:AB107"/>
+    <mergeCell ref="AC106:AC107"/>
+    <mergeCell ref="AD106:AG107"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="F108:H109"/>
+    <mergeCell ref="I108:K109"/>
+    <mergeCell ref="L108:R109"/>
+    <mergeCell ref="S108:W109"/>
+    <mergeCell ref="X108:X109"/>
+    <mergeCell ref="Y108:AA109"/>
+    <mergeCell ref="AB108:AB109"/>
+    <mergeCell ref="AC108:AC109"/>
+    <mergeCell ref="AD108:AG109"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="F110:H111"/>
+    <mergeCell ref="I110:K111"/>
+    <mergeCell ref="L110:R111"/>
+    <mergeCell ref="S110:W111"/>
+    <mergeCell ref="X110:X111"/>
+    <mergeCell ref="Y110:AA111"/>
+    <mergeCell ref="AB110:AB111"/>
+    <mergeCell ref="AC110:AC111"/>
+    <mergeCell ref="AD110:AG111"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="F112:H113"/>
+    <mergeCell ref="I112:K113"/>
+    <mergeCell ref="L112:R113"/>
+    <mergeCell ref="S112:W113"/>
+    <mergeCell ref="X112:X113"/>
+    <mergeCell ref="Y112:AA113"/>
+    <mergeCell ref="AB112:AB113"/>
+    <mergeCell ref="AC112:AC113"/>
+    <mergeCell ref="AD112:AG113"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="F114:H115"/>
+    <mergeCell ref="I114:K115"/>
+    <mergeCell ref="L114:R115"/>
+    <mergeCell ref="S114:W115"/>
+    <mergeCell ref="X114:X115"/>
+    <mergeCell ref="Y114:AA115"/>
+    <mergeCell ref="AB114:AB115"/>
+    <mergeCell ref="AC114:AC115"/>
+    <mergeCell ref="AD114:AG115"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="F116:H117"/>
+    <mergeCell ref="I116:K117"/>
+    <mergeCell ref="L116:R117"/>
+    <mergeCell ref="S116:W117"/>
+    <mergeCell ref="X116:X117"/>
+    <mergeCell ref="Y116:AA117"/>
+    <mergeCell ref="AB116:AB117"/>
+    <mergeCell ref="AC116:AC117"/>
+    <mergeCell ref="AD116:AG117"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
